--- a/PROGRAM/R generation of KTP/all_topics_short_virtual.xlsx
+++ b/PROGRAM/R generation of KTP/all_topics_short_virtual.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="22368" windowHeight="9407"/>
   </bookViews>
   <sheets>
     <sheet name="all_topics_short" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_topics_short!$A$1:$F$441</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_topics_short!$A$1:$F$513</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="440">
   <si>
     <t>Year</t>
   </si>
@@ -1121,6 +1121,222 @@
   </si>
   <si>
     <t>Тест-викторина по пройденным темам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стратегия постановки вопроса работы. </t>
+  </si>
+  <si>
+    <t>Правила формулировки гипотезы работы.</t>
+  </si>
+  <si>
+    <t>Структура введения работы. Написание чернового варианта введени</t>
+  </si>
+  <si>
+    <t>Стратегия формулировки целей и задач.</t>
+  </si>
+  <si>
+    <t>Техника написания введени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">План организации главы «Обзор литературы». </t>
+  </si>
+  <si>
+    <t>Принципы цитирования источников.. Написание промежуточной части главы «Обзор литературы»</t>
+  </si>
+  <si>
+    <t>Библиографические базы данных</t>
+  </si>
+  <si>
+    <t>Библиографическая программа Mendeley. Редактирование главы «Обзор литературы».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">План организации главы «Материал и методика». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Принципы описания дизайна сбора материала. </t>
+  </si>
+  <si>
+    <t>Принципы описания географических характеристик сбора материала.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стратегия описания обработки материала. Обсуждение главы «Материал и методика». </t>
+  </si>
+  <si>
+    <t>Правила описания статистической обработки материала.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Правила написания главы «Благодарности». </t>
+  </si>
+  <si>
+    <t>Стратегия написания главы «Изложение результатов».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Правила построения баз данных. Проектирование базы данных для материала работы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приемы и правила занесения данных в компьютер. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приемы построение карт сбора материала. </t>
+  </si>
+  <si>
+    <t>Приемы построения точечных диаграмм.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приемы построения частотных гистограмм. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приемы построения линейных графиков. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приемы построения секторных диаграмм. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приемы построения комбинированных графиков. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приемы построения простых таблиц данных. Построение таблиц с результатами. </t>
+  </si>
+  <si>
+    <t>Приемы построения комбинированных таблиц данных.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двухвыборочный t-тест. Применение двухвыборочного t-теста к материалу работы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корреляционный анализ. Применение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Простая линейная регрессия. Применение линейной регрессии к материалу работы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Множественная регрессия. Применение множественной регрессии к материалу. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дисперсионный анализ. Применение дисперсионного анализа к материалу работы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итоговое занятие №1. Комплексная контрольная работа включающая тест и развернутые задания. </t>
+  </si>
+  <si>
+    <t>Двухфакторный дисперсионный анализ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Методы многомерного анализа. Применение методов многомерного анализа к материалу работы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод главных компонент. Применение метода главных компонент к материалу работы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы корреспондентного анализа. Применение корреспондентного анализа к материалу работы </t>
+  </si>
+  <si>
+    <t>Кластерный анализ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стратегия написания главы «Обсуждение результатов». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приемы компоновки материала для главы «Обсуждение результатов». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приемы сравнения результатов с литературными данными. </t>
+  </si>
+  <si>
+    <t>Стратегия написания главы «Выводы».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стратегия написания главы «Список литературы». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Профессия ученого Работа по выбору типа представления научных результатов. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Принципы обмена знаний. Подготовка текста работы к публикации. </t>
+  </si>
+  <si>
+    <t>Типы презентации результатов. Подготовка иллюстраций к публикации.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Типы публикаций. Редактура публикации. </t>
+  </si>
+  <si>
+    <t>Типы докладо Подготовка текста устного доклада.</t>
+  </si>
+  <si>
+    <t>Устный доклад Шлифовка устного доклада.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Презентация доклада. Подготовка презентации для устного доклада. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Визуальный ряд устного доклада. Комбинирование презентации и устного доклада. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фундамент стендового доклада. Подготовка постера. </t>
+  </si>
+  <si>
+    <t>Структура стендового доклада. Компоновка постера.</t>
+  </si>
+  <si>
+    <t>Стиль стендового доклада.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работа у стенда. Репетиция постерного доклада. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предмет логики. Составление определений. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение содержания понятий. Решение простых логических задач. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суждение Решение сложных логических задач. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умозаключения.Выявление логических ошибок. </t>
+  </si>
+  <si>
+    <t>Логические ошибки и борьба с ними. Вычленение. логики введения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исследовательская работа - арена логических построений. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карта материала. логики обсужения. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Особенности биологии как науки. разбор научной работы с точки зрения логики. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Профессиональная наука. Оценка классических и современных научных работ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Научное сообщество. Составление заявки на грант </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что такое человек? Поиск литературы по теме: что такое человек. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какими они были - наши предки? Анализ палеореконструкций предков человека. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эволюция ближайших предков человека. Поиск литературы по теме: ближайшие предки человека. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поведенческие программы у человека Разбор известных жизненных ситуаций. </t>
+  </si>
+  <si>
+    <t>Агрессия. Разбор агрессивного поведения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мужчина и женщина. Поиск литературы по теме Мужчина и женщина </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жизнь в обществе и биология культуры. Анализ мимов. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итоговое занятие №2. Cеминар. </t>
   </si>
 </sst>
 </file>
@@ -1142,6 +1358,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1150,52 +1380,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,7 +1404,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,30 +1412,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1265,9 +1428,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1280,7 +1459,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,13 +1511,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,25 +1559,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,19 +1595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,25 +1607,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,61 +1673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,6 +1702,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1517,72 +1798,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1591,16 +1807,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1612,132 +1828,135 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2059,10 +2278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F441"/>
+  <dimension ref="A1:F522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B404" sqref="B404"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="B519" sqref="B519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2090,7 +2309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2110,7 +2329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2130,7 +2349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2150,7 +2369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:6">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2170,7 +2389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:6">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2190,7 +2409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:6">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2210,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2230,7 +2449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2250,7 +2469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:6">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2270,7 +2489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2290,7 +2509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2310,7 +2529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:6">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2330,7 +2549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:6">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2350,7 +2569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:6">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2370,7 +2589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:6">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2390,7 +2609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:6">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2410,7 +2629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:6">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2430,7 +2649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:6">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2450,7 +2669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:6">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2470,7 +2689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:6">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2490,7 +2709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:6">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2510,7 +2729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:6">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2530,7 +2749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:6">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2550,7 +2769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:6">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2570,7 +2789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:6">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2590,7 +2809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:6">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2610,7 +2829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:6">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2630,7 +2849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:6">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2650,7 +2869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:6">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2670,7 +2889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:6">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2690,7 +2909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:6">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2710,7 +2929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:6">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2730,7 +2949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:6">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2750,7 +2969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:6">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2770,7 +2989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:6">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2790,7 +3009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:6">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2810,7 +3029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:6">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2830,7 +3049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:6">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2850,7 +3069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:6">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2870,7 +3089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:6">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2890,7 +3109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:6">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2910,7 +3129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:6">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2930,7 +3149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:6">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2950,7 +3169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:6">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2970,7 +3189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:6">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2990,7 +3209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:6">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3010,7 +3229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:6">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3030,7 +3249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:6">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3050,7 +3269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:6">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3070,7 +3289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:6">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3090,7 +3309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:6">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3110,7 +3329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:6">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3130,7 +3349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:6">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3150,7 +3369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:6">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3170,7 +3389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:6">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3190,7 +3409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:6">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3210,7 +3429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:6">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>1</v>
       </c>
@@ -4650,7 +4869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:6">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>2</v>
       </c>
@@ -4670,7 +4889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:6">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>2</v>
       </c>
@@ -4690,7 +4909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:6">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>2</v>
       </c>
@@ -4710,7 +4929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:6">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>2</v>
       </c>
@@ -4730,7 +4949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:6">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>2</v>
       </c>
@@ -4750,7 +4969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:6">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>2</v>
       </c>
@@ -4770,7 +4989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:6">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>2</v>
       </c>
@@ -4790,7 +5009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:6">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>2</v>
       </c>
@@ -4810,7 +5029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:6">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>2</v>
       </c>
@@ -4830,7 +5049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:6">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>3</v>
       </c>
@@ -4850,7 +5069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:6">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>3</v>
       </c>
@@ -4870,7 +5089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:6">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>3</v>
       </c>
@@ -4890,7 +5109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:6">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>3</v>
       </c>
@@ -4910,7 +5129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:6">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>3</v>
       </c>
@@ -4930,7 +5149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:6">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4950,7 +5169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:6">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>3</v>
       </c>
@@ -4970,7 +5189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:6">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>3</v>
       </c>
@@ -4990,7 +5209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:6">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>3</v>
       </c>
@@ -5010,7 +5229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:6">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>3</v>
       </c>
@@ -5030,7 +5249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:6">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>3</v>
       </c>
@@ -5050,7 +5269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:6">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>3</v>
       </c>
@@ -5070,7 +5289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:6">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>3</v>
       </c>
@@ -5090,7 +5309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:6">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>3</v>
       </c>
@@ -5110,7 +5329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:6">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>3</v>
       </c>
@@ -5130,7 +5349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:6">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>3</v>
       </c>
@@ -5150,7 +5369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:6">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>3</v>
       </c>
@@ -5170,7 +5389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:6">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>3</v>
       </c>
@@ -5190,7 +5409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:6">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>3</v>
       </c>
@@ -5210,7 +5429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:6">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>3</v>
       </c>
@@ -5230,7 +5449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:6">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>3</v>
       </c>
@@ -5250,7 +5469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:6">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>3</v>
       </c>
@@ -5270,7 +5489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:6">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>3</v>
       </c>
@@ -5290,7 +5509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:6">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>3</v>
       </c>
@@ -5310,7 +5529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:6">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>3</v>
       </c>
@@ -5330,7 +5549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:6">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>3</v>
       </c>
@@ -5350,7 +5569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:6">
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>3</v>
       </c>
@@ -5370,7 +5589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:6">
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>3</v>
       </c>
@@ -5390,7 +5609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:6">
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>3</v>
       </c>
@@ -5410,7 +5629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:6">
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>3</v>
       </c>
@@ -5430,7 +5649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:6">
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>3</v>
       </c>
@@ -5450,7 +5669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:6">
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>3</v>
       </c>
@@ -5470,7 +5689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:6">
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>3</v>
       </c>
@@ -5490,7 +5709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:6">
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>3</v>
       </c>
@@ -5510,7 +5729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:6">
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>3</v>
       </c>
@@ -5530,7 +5749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:6">
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>3</v>
       </c>
@@ -5550,7 +5769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:6">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>3</v>
       </c>
@@ -5570,7 +5789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:6">
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>3</v>
       </c>
@@ -5590,7 +5809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:6">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>3</v>
       </c>
@@ -5610,7 +5829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:6">
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>3</v>
       </c>
@@ -5630,7 +5849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:6">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>3</v>
       </c>
@@ -5650,7 +5869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:6">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>3</v>
       </c>
@@ -5670,7 +5889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:6">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>3</v>
       </c>
@@ -5690,7 +5909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:6">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>3</v>
       </c>
@@ -5710,7 +5929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:6">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>3</v>
       </c>
@@ -5730,7 +5949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:6">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>3</v>
       </c>
@@ -5750,7 +5969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:6">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>3</v>
       </c>
@@ -5770,7 +5989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:6">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>3</v>
       </c>
@@ -5790,7 +6009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:6">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>3</v>
       </c>
@@ -5810,7 +6029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:6">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>3</v>
       </c>
@@ -5830,7 +6049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:6">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>3</v>
       </c>
@@ -5850,7 +6069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:6">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>3</v>
       </c>
@@ -5870,7 +6089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:6">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>3</v>
       </c>
@@ -5890,7 +6109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:6">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>3</v>
       </c>
@@ -5910,7 +6129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:6">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>3</v>
       </c>
@@ -5930,7 +6149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:6">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>3</v>
       </c>
@@ -5950,7 +6169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:6">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>3</v>
       </c>
@@ -5970,7 +6189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:6">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>3</v>
       </c>
@@ -5990,7 +6209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:6">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>3</v>
       </c>
@@ -6010,7 +6229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:6">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>3</v>
       </c>
@@ -6030,7 +6249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:6">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>3</v>
       </c>
@@ -6050,7 +6269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:6">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>3</v>
       </c>
@@ -6070,7 +6289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:6">
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>3</v>
       </c>
@@ -6090,7 +6309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:6">
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>3</v>
       </c>
@@ -6110,7 +6329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:6">
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>3</v>
       </c>
@@ -6130,7 +6349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:6">
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>3</v>
       </c>
@@ -6150,7 +6369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:6">
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>3</v>
       </c>
@@ -6170,7 +6389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:6">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>3</v>
       </c>
@@ -6190,7 +6409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:6">
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>3</v>
       </c>
@@ -6210,7 +6429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:6">
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>3</v>
       </c>
@@ -6230,7 +6449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:6">
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>3</v>
       </c>
@@ -6250,7 +6469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:6">
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>3</v>
       </c>
@@ -6270,7 +6489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:6">
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>3</v>
       </c>
@@ -6290,7 +6509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:6">
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>3</v>
       </c>
@@ -6310,7 +6529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:6">
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>3</v>
       </c>
@@ -6330,7 +6549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:6">
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>3</v>
       </c>
@@ -6350,7 +6569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:6">
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>3</v>
       </c>
@@ -6370,7 +6589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:6">
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>3</v>
       </c>
@@ -6390,7 +6609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:6">
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>3</v>
       </c>
@@ -6410,7 +6629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:6">
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>3</v>
       </c>
@@ -6430,7 +6649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:6">
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>3</v>
       </c>
@@ -6450,7 +6669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:6">
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>3</v>
       </c>
@@ -6470,7 +6689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:6">
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>3</v>
       </c>
@@ -6490,7 +6709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:6">
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>3</v>
       </c>
@@ -9390,7 +9609,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="1:6">
+    <row r="367" spans="1:6">
       <c r="A367">
         <v>1</v>
       </c>
@@ -9410,7 +9629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:6">
+    <row r="368" spans="1:6">
       <c r="A368">
         <v>1</v>
       </c>
@@ -9430,7 +9649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:6">
+    <row r="369" spans="1:6">
       <c r="A369">
         <v>1</v>
       </c>
@@ -9450,7 +9669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="1:6">
+    <row r="370" spans="1:6">
       <c r="A370">
         <v>1</v>
       </c>
@@ -9470,7 +9689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" hidden="1" spans="1:6">
+    <row r="371" spans="1:6">
       <c r="A371">
         <v>1</v>
       </c>
@@ -9490,7 +9709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="1:6">
+    <row r="372" spans="1:6">
       <c r="A372">
         <v>1</v>
       </c>
@@ -9510,7 +9729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" hidden="1" spans="1:6">
+    <row r="373" spans="1:6">
       <c r="A373">
         <v>1</v>
       </c>
@@ -9530,7 +9749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:6">
+    <row r="374" spans="1:6">
       <c r="A374">
         <v>1</v>
       </c>
@@ -9550,7 +9769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:6">
+    <row r="375" spans="1:6">
       <c r="A375">
         <v>1</v>
       </c>
@@ -9570,7 +9789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="1:6">
+    <row r="376" spans="1:6">
       <c r="A376">
         <v>1</v>
       </c>
@@ -9590,7 +9809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:6">
+    <row r="377" spans="1:6">
       <c r="A377">
         <v>1</v>
       </c>
@@ -9610,7 +9829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:6">
+    <row r="378" spans="1:6">
       <c r="A378">
         <v>1</v>
       </c>
@@ -9630,7 +9849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:6">
+    <row r="379" spans="1:6">
       <c r="A379">
         <v>1</v>
       </c>
@@ -9650,7 +9869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="1:6">
+    <row r="380" spans="1:6">
       <c r="A380">
         <v>1</v>
       </c>
@@ -9670,7 +9889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" hidden="1" spans="1:6">
+    <row r="381" spans="1:6">
       <c r="A381">
         <v>1</v>
       </c>
@@ -9690,7 +9909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:6">
+    <row r="382" spans="1:6">
       <c r="A382">
         <v>1</v>
       </c>
@@ -9710,7 +9929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:6">
+    <row r="383" spans="1:6">
       <c r="A383">
         <v>1</v>
       </c>
@@ -9730,7 +9949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:6">
+    <row r="384" spans="1:6">
       <c r="A384">
         <v>1</v>
       </c>
@@ -9750,7 +9969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="1:6">
+    <row r="385" spans="1:6">
       <c r="A385">
         <v>1</v>
       </c>
@@ -9770,7 +9989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="1:6">
+    <row r="386" spans="1:6">
       <c r="A386">
         <v>1</v>
       </c>
@@ -9790,7 +10009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="1:6">
+    <row r="387" spans="1:6">
       <c r="A387">
         <v>1</v>
       </c>
@@ -9810,7 +10029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="1:6">
+    <row r="388" spans="1:6">
       <c r="A388">
         <v>1</v>
       </c>
@@ -9830,7 +10049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:6">
+    <row r="389" spans="1:6">
       <c r="A389">
         <v>1</v>
       </c>
@@ -9850,7 +10069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:6">
+    <row r="390" spans="1:6">
       <c r="A390">
         <v>1</v>
       </c>
@@ -9870,7 +10089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" hidden="1" spans="1:6">
+    <row r="391" spans="1:6">
       <c r="A391">
         <v>1</v>
       </c>
@@ -9890,7 +10109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:6">
+    <row r="392" spans="1:6">
       <c r="A392">
         <v>1</v>
       </c>
@@ -9910,7 +10129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:6">
+    <row r="393" spans="1:6">
       <c r="A393">
         <v>1</v>
       </c>
@@ -9930,7 +10149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:6">
+    <row r="394" spans="1:6">
       <c r="A394">
         <v>1</v>
       </c>
@@ -9950,7 +10169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:6">
+    <row r="395" spans="1:6">
       <c r="A395">
         <v>1</v>
       </c>
@@ -9970,7 +10189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="1:6">
+    <row r="396" spans="1:6">
       <c r="A396">
         <v>1</v>
       </c>
@@ -9990,7 +10209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:6">
+    <row r="397" spans="1:6">
       <c r="A397">
         <v>1</v>
       </c>
@@ -10010,7 +10229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="1:6">
+    <row r="398" spans="1:6">
       <c r="A398">
         <v>1</v>
       </c>
@@ -10030,7 +10249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:6">
+    <row r="399" spans="1:6">
       <c r="A399">
         <v>1</v>
       </c>
@@ -10050,7 +10269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:6">
+    <row r="400" spans="1:6">
       <c r="A400">
         <v>1</v>
       </c>
@@ -10070,7 +10289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" hidden="1" spans="1:6">
+    <row r="401" spans="1:6">
       <c r="A401">
         <v>1</v>
       </c>
@@ -10090,7 +10309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:6">
+    <row r="402" spans="1:6">
       <c r="A402">
         <v>1</v>
       </c>
@@ -10890,20 +11109,1628 @@
         <v>8</v>
       </c>
     </row>
+    <row r="442" spans="1:6">
+      <c r="A442" s="1">
+        <v>4</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C442" s="1">
+        <v>1</v>
+      </c>
+      <c r="D442" s="1">
+        <v>2</v>
+      </c>
+      <c r="E442" t="s">
+        <v>7</v>
+      </c>
+      <c r="F442" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" s="1">
+        <v>4</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C443" s="1">
+        <v>1</v>
+      </c>
+      <c r="D443" s="1">
+        <v>2</v>
+      </c>
+      <c r="E443" t="s">
+        <v>7</v>
+      </c>
+      <c r="F443" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" s="1">
+        <v>4</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C444" s="1">
+        <v>1</v>
+      </c>
+      <c r="D444" s="1">
+        <v>2</v>
+      </c>
+      <c r="E444" t="s">
+        <v>7</v>
+      </c>
+      <c r="F444" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="1">
+        <v>4</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C445" s="1">
+        <v>1</v>
+      </c>
+      <c r="D445" s="1">
+        <v>2</v>
+      </c>
+      <c r="E445" t="s">
+        <v>7</v>
+      </c>
+      <c r="F445" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" s="1">
+        <v>4</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C446" s="1">
+        <v>1</v>
+      </c>
+      <c r="D446" s="1">
+        <v>2</v>
+      </c>
+      <c r="E446" t="s">
+        <v>7</v>
+      </c>
+      <c r="F446" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="1">
+        <v>4</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C447" s="1">
+        <v>1</v>
+      </c>
+      <c r="D447" s="1">
+        <v>2</v>
+      </c>
+      <c r="E447" t="s">
+        <v>7</v>
+      </c>
+      <c r="F447" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" s="1">
+        <v>4</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C448" s="1">
+        <v>1</v>
+      </c>
+      <c r="D448" s="1">
+        <v>2</v>
+      </c>
+      <c r="E448" t="s">
+        <v>7</v>
+      </c>
+      <c r="F448" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" s="1">
+        <v>4</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C449" s="1">
+        <v>1</v>
+      </c>
+      <c r="D449" s="1">
+        <v>2</v>
+      </c>
+      <c r="E449" t="s">
+        <v>7</v>
+      </c>
+      <c r="F449" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" s="1">
+        <v>4</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C450" s="1">
+        <v>1</v>
+      </c>
+      <c r="D450" s="1">
+        <v>2</v>
+      </c>
+      <c r="E450" t="s">
+        <v>7</v>
+      </c>
+      <c r="F450" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" s="1">
+        <v>4</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C451" s="1">
+        <v>1</v>
+      </c>
+      <c r="D451" s="1">
+        <v>2</v>
+      </c>
+      <c r="E451" t="s">
+        <v>7</v>
+      </c>
+      <c r="F451" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" s="1">
+        <v>4</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C452" s="1">
+        <v>1</v>
+      </c>
+      <c r="D452" s="1">
+        <v>2</v>
+      </c>
+      <c r="E452" t="s">
+        <v>7</v>
+      </c>
+      <c r="F452" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" s="1">
+        <v>4</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C453" s="1">
+        <v>1</v>
+      </c>
+      <c r="D453" s="1">
+        <v>2</v>
+      </c>
+      <c r="E453" t="s">
+        <v>7</v>
+      </c>
+      <c r="F453" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" s="1">
+        <v>4</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C454" s="1">
+        <v>1</v>
+      </c>
+      <c r="D454" s="1">
+        <v>2</v>
+      </c>
+      <c r="E454" t="s">
+        <v>7</v>
+      </c>
+      <c r="F454" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" s="1">
+        <v>4</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C455" s="1">
+        <v>1</v>
+      </c>
+      <c r="D455" s="1">
+        <v>2</v>
+      </c>
+      <c r="E455" t="s">
+        <v>7</v>
+      </c>
+      <c r="F455" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" s="1">
+        <v>4</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C456" s="1">
+        <v>1</v>
+      </c>
+      <c r="D456" s="1">
+        <v>2</v>
+      </c>
+      <c r="E456" t="s">
+        <v>7</v>
+      </c>
+      <c r="F456" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" s="1">
+        <v>4</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C457" s="1">
+        <v>1</v>
+      </c>
+      <c r="D457" s="1">
+        <v>2</v>
+      </c>
+      <c r="E457" t="s">
+        <v>7</v>
+      </c>
+      <c r="F457" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" s="1">
+        <v>4</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C458" s="1">
+        <v>1</v>
+      </c>
+      <c r="D458" s="1">
+        <v>2</v>
+      </c>
+      <c r="E458" t="s">
+        <v>7</v>
+      </c>
+      <c r="F458" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" s="1">
+        <v>4</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C459" s="1">
+        <v>1</v>
+      </c>
+      <c r="D459" s="1">
+        <v>2</v>
+      </c>
+      <c r="E459" t="s">
+        <v>7</v>
+      </c>
+      <c r="F459" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" s="1">
+        <v>4</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C460" s="1">
+        <v>1</v>
+      </c>
+      <c r="D460" s="1">
+        <v>2</v>
+      </c>
+      <c r="E460" t="s">
+        <v>7</v>
+      </c>
+      <c r="F460" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" s="1">
+        <v>4</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C461" s="1">
+        <v>1</v>
+      </c>
+      <c r="D461" s="1">
+        <v>2</v>
+      </c>
+      <c r="E461" t="s">
+        <v>7</v>
+      </c>
+      <c r="F461" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" s="1">
+        <v>4</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C462" s="1">
+        <v>1</v>
+      </c>
+      <c r="D462" s="1">
+        <v>2</v>
+      </c>
+      <c r="E462" t="s">
+        <v>7</v>
+      </c>
+      <c r="F462" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" s="1">
+        <v>4</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C463" s="1">
+        <v>1</v>
+      </c>
+      <c r="D463" s="1">
+        <v>2</v>
+      </c>
+      <c r="E463" t="s">
+        <v>7</v>
+      </c>
+      <c r="F463" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" s="1">
+        <v>4</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C464" s="1">
+        <v>1</v>
+      </c>
+      <c r="D464" s="1">
+        <v>2</v>
+      </c>
+      <c r="E464" t="s">
+        <v>7</v>
+      </c>
+      <c r="F464" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" s="1">
+        <v>4</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C465" s="1">
+        <v>1</v>
+      </c>
+      <c r="D465" s="1">
+        <v>2</v>
+      </c>
+      <c r="E465" t="s">
+        <v>7</v>
+      </c>
+      <c r="F465" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" s="1">
+        <v>4</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C466" s="1">
+        <v>1</v>
+      </c>
+      <c r="D466" s="1">
+        <v>2</v>
+      </c>
+      <c r="E466" t="s">
+        <v>7</v>
+      </c>
+      <c r="F466" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" s="1">
+        <v>4</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C467" s="1">
+        <v>1</v>
+      </c>
+      <c r="D467" s="1">
+        <v>2</v>
+      </c>
+      <c r="E467" t="s">
+        <v>7</v>
+      </c>
+      <c r="F467" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" s="1">
+        <v>4</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C468" s="1">
+        <v>1</v>
+      </c>
+      <c r="D468" s="1">
+        <v>2</v>
+      </c>
+      <c r="E468" t="s">
+        <v>7</v>
+      </c>
+      <c r="F468" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" s="1">
+        <v>4</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C469" s="1">
+        <v>1</v>
+      </c>
+      <c r="D469" s="1">
+        <v>2</v>
+      </c>
+      <c r="E469" t="s">
+        <v>7</v>
+      </c>
+      <c r="F469" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" s="1">
+        <v>4</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C470" s="1">
+        <v>1</v>
+      </c>
+      <c r="D470" s="1">
+        <v>2</v>
+      </c>
+      <c r="E470" t="s">
+        <v>7</v>
+      </c>
+      <c r="F470" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" s="1">
+        <v>4</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C471" s="1">
+        <v>1</v>
+      </c>
+      <c r="D471" s="1">
+        <v>2</v>
+      </c>
+      <c r="E471" t="s">
+        <v>7</v>
+      </c>
+      <c r="F471" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" s="1">
+        <v>4</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C472" s="1">
+        <v>1</v>
+      </c>
+      <c r="D472" s="1">
+        <v>2</v>
+      </c>
+      <c r="E472" t="s">
+        <v>7</v>
+      </c>
+      <c r="F472" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" s="1">
+        <v>4</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C473" s="1">
+        <v>1</v>
+      </c>
+      <c r="D473" s="1">
+        <v>2</v>
+      </c>
+      <c r="E473" t="s">
+        <v>7</v>
+      </c>
+      <c r="F473" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" s="1">
+        <v>4</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C474" s="1">
+        <v>1</v>
+      </c>
+      <c r="D474" s="1">
+        <v>2</v>
+      </c>
+      <c r="E474" t="s">
+        <v>7</v>
+      </c>
+      <c r="F474" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" s="1">
+        <v>4</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C475" s="1">
+        <v>1</v>
+      </c>
+      <c r="D475" s="1">
+        <v>2</v>
+      </c>
+      <c r="E475" t="s">
+        <v>7</v>
+      </c>
+      <c r="F475" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="A476" s="1">
+        <v>4</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C476" s="1">
+        <v>1</v>
+      </c>
+      <c r="D476" s="1">
+        <v>2</v>
+      </c>
+      <c r="E476" t="s">
+        <v>7</v>
+      </c>
+      <c r="F476" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" s="1">
+        <v>4</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C477" s="1">
+        <v>1</v>
+      </c>
+      <c r="D477" s="1">
+        <v>2</v>
+      </c>
+      <c r="E477" t="s">
+        <v>7</v>
+      </c>
+      <c r="F477" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" s="1">
+        <v>4</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C478" s="1">
+        <v>1</v>
+      </c>
+      <c r="D478" s="1">
+        <v>2</v>
+      </c>
+      <c r="E478" t="s">
+        <v>7</v>
+      </c>
+      <c r="F478" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" s="1">
+        <v>4</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C479" s="1">
+        <v>1</v>
+      </c>
+      <c r="D479" s="1">
+        <v>2</v>
+      </c>
+      <c r="E479" t="s">
+        <v>7</v>
+      </c>
+      <c r="F479" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" s="1">
+        <v>4</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C480" s="1">
+        <v>1</v>
+      </c>
+      <c r="D480" s="1">
+        <v>2</v>
+      </c>
+      <c r="E480" t="s">
+        <v>7</v>
+      </c>
+      <c r="F480" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" s="1">
+        <v>4</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C481" s="1">
+        <v>1</v>
+      </c>
+      <c r="D481" s="1">
+        <v>2</v>
+      </c>
+      <c r="E481" t="s">
+        <v>7</v>
+      </c>
+      <c r="F481" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482" s="1">
+        <v>4</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C482" s="1">
+        <v>1</v>
+      </c>
+      <c r="D482" s="1">
+        <v>2</v>
+      </c>
+      <c r="E482" t="s">
+        <v>7</v>
+      </c>
+      <c r="F482" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" s="1">
+        <v>4</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C483" s="1">
+        <v>1</v>
+      </c>
+      <c r="D483" s="1">
+        <v>2</v>
+      </c>
+      <c r="E483" t="s">
+        <v>7</v>
+      </c>
+      <c r="F483" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" s="1">
+        <v>4</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C484" s="1">
+        <v>1</v>
+      </c>
+      <c r="D484" s="1">
+        <v>2</v>
+      </c>
+      <c r="E484" t="s">
+        <v>7</v>
+      </c>
+      <c r="F484" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485" s="1">
+        <v>4</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C485" s="1">
+        <v>1</v>
+      </c>
+      <c r="D485" s="1">
+        <v>2</v>
+      </c>
+      <c r="E485" t="s">
+        <v>7</v>
+      </c>
+      <c r="F485" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486" s="1">
+        <v>4</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C486" s="1">
+        <v>1</v>
+      </c>
+      <c r="D486" s="1">
+        <v>2</v>
+      </c>
+      <c r="E486" t="s">
+        <v>7</v>
+      </c>
+      <c r="F486" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487" s="1">
+        <v>4</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C487" s="1">
+        <v>1</v>
+      </c>
+      <c r="D487" s="1">
+        <v>2</v>
+      </c>
+      <c r="E487" t="s">
+        <v>7</v>
+      </c>
+      <c r="F487" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488" s="1">
+        <v>4</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C488" s="1">
+        <v>1</v>
+      </c>
+      <c r="D488" s="1">
+        <v>2</v>
+      </c>
+      <c r="E488" t="s">
+        <v>7</v>
+      </c>
+      <c r="F488" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489" s="1">
+        <v>4</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C489" s="1">
+        <v>1</v>
+      </c>
+      <c r="D489" s="1">
+        <v>2</v>
+      </c>
+      <c r="E489" t="s">
+        <v>7</v>
+      </c>
+      <c r="F489" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" s="1">
+        <v>4</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C490" s="1">
+        <v>1</v>
+      </c>
+      <c r="D490" s="1">
+        <v>2</v>
+      </c>
+      <c r="E490" t="s">
+        <v>7</v>
+      </c>
+      <c r="F490" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" s="1">
+        <v>4</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C491" s="1">
+        <v>1</v>
+      </c>
+      <c r="D491" s="1">
+        <v>2</v>
+      </c>
+      <c r="E491" t="s">
+        <v>7</v>
+      </c>
+      <c r="F491" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" s="1">
+        <v>4</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C492" s="1">
+        <v>1</v>
+      </c>
+      <c r="D492" s="1">
+        <v>2</v>
+      </c>
+      <c r="E492" t="s">
+        <v>7</v>
+      </c>
+      <c r="F492" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" s="1">
+        <v>4</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C493" s="1">
+        <v>1</v>
+      </c>
+      <c r="D493" s="1">
+        <v>2</v>
+      </c>
+      <c r="E493" t="s">
+        <v>7</v>
+      </c>
+      <c r="F493" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" s="1">
+        <v>4</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C494" s="1">
+        <v>1</v>
+      </c>
+      <c r="D494" s="1">
+        <v>2</v>
+      </c>
+      <c r="E494" t="s">
+        <v>7</v>
+      </c>
+      <c r="F494" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" s="1">
+        <v>4</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C495" s="1">
+        <v>1</v>
+      </c>
+      <c r="D495" s="1">
+        <v>2</v>
+      </c>
+      <c r="E495" t="s">
+        <v>7</v>
+      </c>
+      <c r="F495" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" s="1">
+        <v>4</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C496" s="1">
+        <v>2</v>
+      </c>
+      <c r="D496" s="1">
+        <v>1</v>
+      </c>
+      <c r="E496" t="s">
+        <v>7</v>
+      </c>
+      <c r="F496" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" s="1">
+        <v>4</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C497" s="1">
+        <v>2</v>
+      </c>
+      <c r="D497" s="1">
+        <v>1</v>
+      </c>
+      <c r="E497" t="s">
+        <v>7</v>
+      </c>
+      <c r="F497" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" s="1">
+        <v>4</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C498" s="1">
+        <v>2</v>
+      </c>
+      <c r="D498" s="1">
+        <v>1</v>
+      </c>
+      <c r="E498" t="s">
+        <v>7</v>
+      </c>
+      <c r="F498" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" s="1">
+        <v>4</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C499" s="1">
+        <v>2</v>
+      </c>
+      <c r="D499" s="1">
+        <v>1</v>
+      </c>
+      <c r="E499" t="s">
+        <v>7</v>
+      </c>
+      <c r="F499" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" s="1">
+        <v>4</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C500" s="1">
+        <v>2</v>
+      </c>
+      <c r="D500" s="1">
+        <v>1</v>
+      </c>
+      <c r="E500" t="s">
+        <v>7</v>
+      </c>
+      <c r="F500" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" s="1">
+        <v>4</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C501" s="1">
+        <v>2</v>
+      </c>
+      <c r="D501" s="1">
+        <v>1</v>
+      </c>
+      <c r="E501" t="s">
+        <v>7</v>
+      </c>
+      <c r="F501" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" s="1">
+        <v>4</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C502" s="1">
+        <v>2</v>
+      </c>
+      <c r="D502" s="1">
+        <v>1</v>
+      </c>
+      <c r="E502" t="s">
+        <v>7</v>
+      </c>
+      <c r="F502" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" s="1">
+        <v>4</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C503" s="1">
+        <v>2</v>
+      </c>
+      <c r="D503" s="1">
+        <v>1</v>
+      </c>
+      <c r="E503" t="s">
+        <v>7</v>
+      </c>
+      <c r="F503" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" s="1">
+        <v>4</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C504" s="1">
+        <v>2</v>
+      </c>
+      <c r="D504" s="1">
+        <v>1</v>
+      </c>
+      <c r="E504" t="s">
+        <v>7</v>
+      </c>
+      <c r="F504" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" s="1">
+        <v>4</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C505" s="1">
+        <v>2</v>
+      </c>
+      <c r="D505" s="1">
+        <v>1</v>
+      </c>
+      <c r="E505" t="s">
+        <v>7</v>
+      </c>
+      <c r="F505" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" s="1">
+        <v>4</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C506" s="1">
+        <v>2</v>
+      </c>
+      <c r="D506" s="1">
+        <v>1</v>
+      </c>
+      <c r="E506" t="s">
+        <v>7</v>
+      </c>
+      <c r="F506" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" s="1">
+        <v>4</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C507" s="1">
+        <v>2</v>
+      </c>
+      <c r="D507" s="1">
+        <v>1</v>
+      </c>
+      <c r="E507" t="s">
+        <v>7</v>
+      </c>
+      <c r="F507" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" s="1">
+        <v>4</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C508" s="1">
+        <v>2</v>
+      </c>
+      <c r="D508" s="1">
+        <v>1</v>
+      </c>
+      <c r="E508" t="s">
+        <v>7</v>
+      </c>
+      <c r="F508" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509" s="1">
+        <v>4</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C509" s="1">
+        <v>2</v>
+      </c>
+      <c r="D509" s="1">
+        <v>1</v>
+      </c>
+      <c r="E509" t="s">
+        <v>7</v>
+      </c>
+      <c r="F509" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510" s="1">
+        <v>4</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C510" s="1">
+        <v>2</v>
+      </c>
+      <c r="D510" s="1">
+        <v>1</v>
+      </c>
+      <c r="E510" t="s">
+        <v>7</v>
+      </c>
+      <c r="F510" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" s="1">
+        <v>4</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C511" s="1">
+        <v>2</v>
+      </c>
+      <c r="D511" s="1">
+        <v>1</v>
+      </c>
+      <c r="E511" t="s">
+        <v>7</v>
+      </c>
+      <c r="F511" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" s="1">
+        <v>4</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C512" s="1">
+        <v>2</v>
+      </c>
+      <c r="D512" s="1">
+        <v>1</v>
+      </c>
+      <c r="E512" t="s">
+        <v>7</v>
+      </c>
+      <c r="F512" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513" s="1">
+        <v>4</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C513" s="1">
+        <v>2</v>
+      </c>
+      <c r="D513" s="1">
+        <v>1</v>
+      </c>
+      <c r="E513" t="s">
+        <v>7</v>
+      </c>
+      <c r="F513" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514">
+        <v>4</v>
+      </c>
+      <c r="B514" t="s">
+        <v>209</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514">
+        <v>8</v>
+      </c>
+      <c r="E514" t="s">
+        <v>56</v>
+      </c>
+      <c r="F514" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="A515">
+        <v>4</v>
+      </c>
+      <c r="B515" t="s">
+        <v>210</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515">
+        <v>8</v>
+      </c>
+      <c r="E515" t="s">
+        <v>56</v>
+      </c>
+      <c r="F515" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516">
+        <v>4</v>
+      </c>
+      <c r="B516" t="s">
+        <v>211</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516">
+        <v>8</v>
+      </c>
+      <c r="E516" t="s">
+        <v>56</v>
+      </c>
+      <c r="F516" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517">
+        <v>4</v>
+      </c>
+      <c r="B517" t="s">
+        <v>212</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517">
+        <v>8</v>
+      </c>
+      <c r="E517" t="s">
+        <v>56</v>
+      </c>
+      <c r="F517" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518">
+        <v>4</v>
+      </c>
+      <c r="B518" t="s">
+        <v>213</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518">
+        <v>8</v>
+      </c>
+      <c r="E518" t="s">
+        <v>56</v>
+      </c>
+      <c r="F518" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519">
+        <v>4</v>
+      </c>
+      <c r="B519" t="s">
+        <v>214</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519">
+        <v>8</v>
+      </c>
+      <c r="E519" t="s">
+        <v>56</v>
+      </c>
+      <c r="F519" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6">
+      <c r="A520">
+        <v>4</v>
+      </c>
+      <c r="B520" t="s">
+        <v>215</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520">
+        <v>8</v>
+      </c>
+      <c r="E520" t="s">
+        <v>56</v>
+      </c>
+      <c r="F520" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
+      <c r="A521">
+        <v>4</v>
+      </c>
+      <c r="B521" t="s">
+        <v>64</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>8</v>
+      </c>
+      <c r="E521" t="s">
+        <v>56</v>
+      </c>
+      <c r="F521" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522">
+        <v>4</v>
+      </c>
+      <c r="B522" t="s">
+        <v>216</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522">
+        <v>8</v>
+      </c>
+      <c r="E522" t="s">
+        <v>56</v>
+      </c>
+      <c r="F522" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F441">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="2"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Virtual"/>
-        <filter val="Main"/>
-        <filter val="Excursion"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:F513">
     <filterColumn colId="5">
       <customFilters>
         <customFilter operator="equal" val="Программа экологии морского бентоса (гидробиология)"/>

--- a/PROGRAM/R generation of KTP/all_topics_short_virtual.xlsx
+++ b/PROGRAM/R generation of KTP/all_topics_short_virtual.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9407"/>
+    <workbookView windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="all_topics_short" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_topics_short!$A$1:$F$513</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_topics_short!$A$1:$F$522</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="438">
   <si>
     <t>Year</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Program</t>
   </si>
   <si>
-    <t>История и формирование биологии, Викторина на знание биологии</t>
+    <t>История биологии, Викторина на знание биологии</t>
   </si>
   <si>
     <t>Main</t>
@@ -70,7 +70,7 @@
     <t>Тип Ciliata, Микроскопирование воды из аквариума</t>
   </si>
   <si>
-    <t>Происхождение многоклеточности, Изучение препаратов низших многоклеточных</t>
+    <t>Происхождение многоклеточности, Препараты низших многоклеточных</t>
   </si>
   <si>
     <t>Тип Губки, Приготовление препаратов губок</t>
@@ -82,10 +82,10 @@
     <t>Тип Гребневики, Тест «Низшие многоклеточные»</t>
   </si>
   <si>
-    <t>Плоские черви: Turbellaria, Trematoda, Cestoda,  Внутреннее строение Plathelmintes</t>
-  </si>
-  <si>
-    <t>Жизненные циклы паразитических плоских червей, Стадии развития трематод</t>
+    <t>Плоские черви: Turbellaria, Trematoda, Cestoda,  Внутреннее строение</t>
+  </si>
+  <si>
+    <t>Жизненные циклы паразитов, Стадии развития трематод</t>
   </si>
   <si>
     <t>Тип Немертины, Изучение препарата  немертин</t>
@@ -121,7 +121,7 @@
     <t>Насекомые и многоножки, Тест «Членистоногие»</t>
   </si>
   <si>
-    <t>Внутреннее строение моллюсков, Внутреннее строение двустворчатых моллюсков</t>
+    <t xml:space="preserve">Внутреннее строение моллюсков, Внутреннее строение двустворчатых </t>
   </si>
   <si>
     <t>Тип Моллюски, Внешнее строение различных моллюсков</t>
@@ -142,10 +142,10 @@
     <t>Биотопы Ленинградской области. Приемы работы с определителями</t>
   </si>
   <si>
-    <t>Орнитофауна Ленинградской области. Определение птиц и следов жизнедеятельности</t>
-  </si>
-  <si>
-    <t>Правила техники безопасности и оказание первой помощи, Демонстрация навыков оказания первой помощи</t>
+    <t>Орнитофауна Ленинградской области. Определение птиц и следов</t>
+  </si>
+  <si>
+    <t>Правила техники безопасности и оказание первой помощи, Демонстрация первой помощи</t>
   </si>
   <si>
     <t>Итоговое занятие № 2. Учащиеся демонстрируют знания и практические навыки за отчетный период</t>
@@ -163,454 +163,448 @@
     <t>Экскурсия в Зоологический музей №1</t>
   </si>
   <si>
+    <t>Экскурсия в Зоологический музей №2</t>
+  </si>
+  <si>
+    <t>Экскурсия в Зоологический музей №3</t>
+  </si>
+  <si>
+    <t>Посещение лекции специалистов СПбГУ</t>
+  </si>
+  <si>
+    <t>Экскурсия в Зоологический музей №4</t>
+  </si>
+  <si>
     <t>Практическое занятие на кафедре Зоологии беспозвоночных СПбГУ №1</t>
   </si>
   <si>
-    <t>Экскурсия в музей почвоведения</t>
-  </si>
-  <si>
-    <t>Экскурсия на Кафедру эмбриологи СПбГУ</t>
-  </si>
-  <si>
-    <t>Посещение лекции специалистов СПбГУ</t>
-  </si>
-  <si>
-    <t>Экскурсия в Зоологический музей №2</t>
+    <t>Тест-викторна по пройденным темам</t>
+  </si>
+  <si>
+    <t>Выезд в Тарховку (Курортный район)</t>
+  </si>
+  <si>
+    <t>Excursion</t>
+  </si>
+  <si>
+    <t>Выезд в Сестрорецк (Курортный район)</t>
+  </si>
+  <si>
+    <t>Выезд в Кронштадт</t>
+  </si>
+  <si>
+    <t>Выезд в парк Александрино (Кировский район)</t>
+  </si>
+  <si>
+    <t>Выезд в Зелеогорск (Курортый район)</t>
+  </si>
+  <si>
+    <t>Выезд в парк г. Пушкин</t>
+  </si>
+  <si>
+    <t>Выезд в Павловский парк</t>
+  </si>
+  <si>
+    <t>Выезд в парк Сергиевка (Петродворцовый район)</t>
+  </si>
+  <si>
+    <t>Выезд на Воронью гору (Красносельский район)</t>
+  </si>
+  <si>
+    <t>Определители беломорских животных, Отработка техники определения</t>
+  </si>
+  <si>
+    <t>Отработка техники определения</t>
+  </si>
+  <si>
+    <t>Признаки Polychaeta, Определение бродячих полихет</t>
+  </si>
+  <si>
+    <t>Признаки Polychaeta, Зарисовка бродячих полихет</t>
+  </si>
+  <si>
+    <t>Признаки Polychaeta, Определение сидячих полихет</t>
+  </si>
+  <si>
+    <t>Признаки Polychaeta,  Зарисовка сидячих полихет</t>
+  </si>
+  <si>
+    <t>Признаки Bivalvia, Определение двустворчатых моллюсков</t>
+  </si>
+  <si>
+    <t>Признаки Bivalvia,  Зарисовка двустворчатых моллюсков</t>
+  </si>
+  <si>
+    <t>Признаки Gastropoda, Определение брюхоногих моллюсков</t>
+  </si>
+  <si>
+    <t>Признаки Gastropoda,  Зарисовка брюхоногих моллюсков</t>
+  </si>
+  <si>
+    <t>Признаки Amphipoda, Определение бокоплавов</t>
+  </si>
+  <si>
+    <t>Признаки Amphipoda,  Зарисовка бокоплавов</t>
+  </si>
+  <si>
+    <t>Признаки Decapoda, Определение десятиногих раков</t>
+  </si>
+  <si>
+    <t>Признаки Decapoda,  Зарисовка десятиногих раков</t>
+  </si>
+  <si>
+    <t>Признаки Cumacea, Определение кумовых раков</t>
+  </si>
+  <si>
+    <t>Признаки Cumacea,  Зарисовка кумовых раков</t>
+  </si>
+  <si>
+    <t>Признаки Coelenterata, Определение кишечнополостных</t>
+  </si>
+  <si>
+    <t>Признаки Coelenterata,  Зарисовка кишечнополостных</t>
+  </si>
+  <si>
+    <t>Признаки Bryozoa, Определение мшанок</t>
+  </si>
+  <si>
+    <t>Признаки Bryozoa,  Зарисовка мшанок</t>
+  </si>
+  <si>
+    <t>Признаки Ascidia, Определение асцидий</t>
+  </si>
+  <si>
+    <t>Признаки Ascidia,  Зарисовка асцидий</t>
+  </si>
+  <si>
+    <t>Признаки Asteroidea, Определение Морских звезд</t>
+  </si>
+  <si>
+    <t>Признаки Asteroidea,  Зарисовка Морских звезд</t>
+  </si>
+  <si>
+    <t>Признаки Ophiuroidea, Определение Змеехвосток</t>
+  </si>
+  <si>
+    <t>Признаки Ophiuroidea,  Зарисовка Змеехвосток</t>
+  </si>
+  <si>
+    <t>Определение контрольной коллекции</t>
+  </si>
+  <si>
+    <t>Лабораторные приборы гидробиолога, Практика по сортировке проб</t>
+  </si>
+  <si>
+    <t>Лабораторные приборы гидробиолога, Практика определению обилия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итоговое занятие № 1. В формате отчетной конференции </t>
+  </si>
+  <si>
+    <t>Лабораторные приборы гидробиолога, Практика по опрелелению индексов</t>
+  </si>
+  <si>
+    <t>Измерительные приборы гидробиолога, Практика по измерению</t>
+  </si>
+  <si>
+    <t>Измерительные приборы гидробиолога, Практика по измерению солености</t>
+  </si>
+  <si>
+    <t>Наука - род человеческой деятельности. Решение задач на формулировку гипотез</t>
+  </si>
+  <si>
+    <t>Решение задач на формулировку научных гипотез</t>
+  </si>
+  <si>
+    <t>Схема построения исследования. Решение задач построения исслдеования</t>
+  </si>
+  <si>
+    <t>Схема построения научного исследования. Дизайны эксперимента</t>
+  </si>
+  <si>
+    <t>Форма записи данных. Практика по регистрации данных</t>
+  </si>
+  <si>
+    <t>Форма записи данных. Базы данных</t>
+  </si>
+  <si>
+    <t>Обработка данных. Решение задач на теорию вероятности</t>
+  </si>
+  <si>
+    <t>Обработка данных. Решение задач по статистике</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вариационная статистика. Вычисление описательных статистик </t>
+  </si>
+  <si>
+    <t>Вариационная статистика. Вычисление парамтеров распределения</t>
+  </si>
+  <si>
+    <t>Типы распределений. Построение частотных распределений</t>
+  </si>
+  <si>
+    <t>Типы распределений. Графическое представление</t>
+  </si>
+  <si>
+    <t>Статистические сравнения.  Применение t-критерия</t>
+  </si>
+  <si>
+    <t>Статистические сравнения.  Решение задач</t>
+  </si>
+  <si>
+    <t>Понятие о корреляции. Вычисление корреляции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Понятие о корреляции. Оценка значимости </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Понятие о регрессии. </t>
+  </si>
+  <si>
+    <t>Расчет линии регрессии. Вычисление параметров прямой</t>
+  </si>
+  <si>
+    <t>Обзор современных методов. Ошибки I и II рода</t>
+  </si>
+  <si>
+    <t>Обзор современных методов. Мощность теста</t>
+  </si>
+  <si>
+    <t>Коллоквиум и тест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Классификация и ординация. </t>
+  </si>
+  <si>
+    <t>Подготовка к путешествию по морям России</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подготовка к путешествию. Тест-викторина «Организация планеты Земля» </t>
+  </si>
+  <si>
+    <t>Ладожское озеро. Тест-викторина «Ладога»</t>
+  </si>
+  <si>
+    <t>Ладожское озеро. Особенности гирологи</t>
+  </si>
+  <si>
+    <t>Белое море и Баренцево море. Особенности гидрологи</t>
+  </si>
+  <si>
+    <t>Белое море и Баренцево море. Тест-викторина «Белое море»</t>
+  </si>
+  <si>
+    <t>Арктика и Дальний Восток. Особенности гидрологи</t>
+  </si>
+  <si>
+    <t>Арктика и Дальний Восток. Тест-викторина «Животные Северных морей»</t>
+  </si>
+  <si>
+    <t>Атлантика. Особенности гидрологи и происхождение фауны</t>
+  </si>
+  <si>
+    <t>Атлантика. Тест-викторина «Животные Атлантического океана»</t>
+  </si>
+  <si>
+    <t>Индийский океан. Особенности гидробионтов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индийский океан. Устный опрос. Контроль знаний. </t>
+  </si>
+  <si>
+    <t>Итоговое занятие № 2. В формате отчетной конференции</t>
   </si>
   <si>
     <t>Практическое занятие на кафедре Зоологии беспозвоночных СПбГУ №2</t>
   </si>
   <si>
-    <t>Тест-викторна по пройденным темам</t>
-  </si>
-  <si>
-    <t>Выезд в Тарховку (Курортный район)</t>
-  </si>
-  <si>
-    <t>Excursion</t>
-  </si>
-  <si>
-    <t>Выезд в Сестрорецк (Курортный район)</t>
-  </si>
-  <si>
-    <t>Выезд в Кронштадт</t>
-  </si>
-  <si>
-    <t>Выезд в парк Александрино (Кировский район)</t>
-  </si>
-  <si>
-    <t>Выезд в Зелеогорск (Курортый район)</t>
-  </si>
-  <si>
-    <t>Выезд в парк г. Пушкин</t>
-  </si>
-  <si>
-    <t>Выезд в Павловский парк</t>
-  </si>
-  <si>
-    <t>Выезд в парк Сергиевка (Петродворцовый район)</t>
-  </si>
-  <si>
-    <t>Выезд на Воронью гору (Красносельский район)</t>
-  </si>
-  <si>
-    <t>Определители беломорских животных, Отработка техники работы с определителем</t>
-  </si>
-  <si>
-    <t>Определители беломорских животных, Практика работы с определителями</t>
-  </si>
-  <si>
-    <t>Отработка техники определения</t>
-  </si>
-  <si>
-    <t>Техника определения беломорских животных, Отработка техники определения</t>
-  </si>
-  <si>
-    <t>Признаки Polychaeta, Определение бродячих полихет</t>
-  </si>
-  <si>
-    <t>Признаки Polychaeta, Зарисовка бродячих полихет</t>
-  </si>
-  <si>
-    <t>Признаки Polychaeta, Определение сидячих полихет</t>
-  </si>
-  <si>
-    <t>Признаки Polychaeta,  Зарисовка сидячих полихет</t>
-  </si>
-  <si>
-    <t>Признаки Bivalvia, Определение двустворчатых моллюсков</t>
-  </si>
-  <si>
-    <t>Признаки Bivalvia,  Зарисовка двустворчатых моллюсков</t>
-  </si>
-  <si>
-    <t>Признаки Gastropoda, Определение брюхоногих моллюсков</t>
-  </si>
-  <si>
-    <t>Признаки Gastropoda,  Зарисовка брюхоногих моллюсков</t>
-  </si>
-  <si>
-    <t>Признаки Amphipoda, Определение бокоплавов</t>
-  </si>
-  <si>
-    <t>Признаки Amphipoda,  Зарисовка бокоплавов</t>
-  </si>
-  <si>
-    <t>Признаки Decapoda, Определение десятиногих раков</t>
-  </si>
-  <si>
-    <t>Признаки Decapoda,  Зарисовка десятиногих раков</t>
-  </si>
-  <si>
-    <t>Признаки Cumacea, Определение кумовых раков</t>
-  </si>
-  <si>
-    <t>Признаки Cumacea,  Зарисовка кумовых раков</t>
-  </si>
-  <si>
-    <t>Признаки Coelenterata, Определение кишечнополостных</t>
-  </si>
-  <si>
-    <t>Признаки Coelenterata,  Зарисовка кишечнополостных</t>
-  </si>
-  <si>
-    <t>Признаки Bryozoa, Определение мшанок</t>
-  </si>
-  <si>
-    <t>Признаки Bryozoa,  Зарисовка мшанок</t>
-  </si>
-  <si>
-    <t>Признаки Ascidia, Определение асцидий</t>
-  </si>
-  <si>
-    <t>Признаки Ascidia,  Зарисовка асцидий</t>
-  </si>
-  <si>
-    <t>Признаки Asteroidea, Определение Морских звезд</t>
-  </si>
-  <si>
-    <t>Признаки Asteroidea,  Зарисовка Морских звезд</t>
-  </si>
-  <si>
-    <t>Признаки Ophiuroidea, Определение Змеехвосток</t>
-  </si>
-  <si>
-    <t>Признаки Ophiuroidea,  Зарисовка Змеехвосток</t>
-  </si>
-  <si>
-    <t>Определение контрольной коллекции</t>
-  </si>
-  <si>
-    <t>Лабораторные приборы гидробиолога, Практика по сортировке проб</t>
-  </si>
-  <si>
-    <t>Лабораторные приборы гидробиолога, Практика определению обилия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Итоговое занятие № 1. В формате отчетной конференции </t>
-  </si>
-  <si>
-    <t>Лабораторные приборы гидробиолога, Практика по опрелелению индексов</t>
-  </si>
-  <si>
-    <t>Измерительные приборы гидробиолога, Практика по измерению гидрологических показателей</t>
-  </si>
-  <si>
-    <t>Измерительные приборы гидробиолога, Практика по измерению солености</t>
-  </si>
-  <si>
-    <t>Наука - род человеческой деятельности. Решение задач на формулировку научных гипотез</t>
-  </si>
-  <si>
-    <t>Решение задач на формулировку научных гипотез</t>
-  </si>
-  <si>
-    <t>Схема построения научного исследования. Решение задач построения дизайна научного исслдеования</t>
-  </si>
-  <si>
-    <t>Схема построения научного исследования. Дизайны эксперимента</t>
-  </si>
-  <si>
-    <t>Форма записи первичных данных. Практика по регистрации научных данных</t>
-  </si>
-  <si>
-    <t>Форма записи первичных данных. Базы данных</t>
-  </si>
-  <si>
-    <t>Обработка данных. Решение задач на теорию вероятности</t>
-  </si>
-  <si>
-    <t>Обработка данных. Решение задач по статистике</t>
-  </si>
-  <si>
-    <t>Вариационная статистика. Вычисление описательных статистик в выборках</t>
-  </si>
-  <si>
-    <t>Вариационная статистика. Вычисление парамтеров распределения</t>
-  </si>
-  <si>
-    <t>Типы распределений. Построение частотных распределений</t>
-  </si>
-  <si>
-    <t>Типы распределений. Графическое представление распределеиния</t>
-  </si>
-  <si>
-    <t>Статистические сравнения.  Применение t-критерия к сравнению выборок</t>
-  </si>
-  <si>
-    <t>Статистические сравнения.  Решение задач на Применение t-критерия</t>
-  </si>
-  <si>
-    <t>Понятие о корреляции. Вычисление коэффициента корреляции</t>
-  </si>
-  <si>
-    <t>Понятие о корреляции. Оценка значимости корреляции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Понятие о регрессии и расчет линии регрессии. </t>
-  </si>
-  <si>
-    <t>Понятие о регрессии и расчет линии регрессии. Вычисление параметров регрессионной прямой</t>
-  </si>
-  <si>
-    <t>Краткий обзор современных методов статистики. Оценка вероятностей ошибок I и II рода</t>
-  </si>
-  <si>
-    <t>Краткий обзор современных методов статистики. Мощность теста</t>
-  </si>
-  <si>
-    <t>Коллоквиум и тест</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Классификация и ординация. </t>
-  </si>
-  <si>
-    <t>Подготовка к путешествию ао морям России</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовка к путешествию. Тест-викторина «Организация планеты Земля» </t>
-  </si>
-  <si>
-    <t>Ладожское озеро. Тест-викторина «Ладога»</t>
-  </si>
-  <si>
-    <t>Ладожское озеро. Особенности гирологи</t>
-  </si>
-  <si>
-    <t>Белое море и Баренцево море. Особенности гидрологи</t>
-  </si>
-  <si>
-    <t>Белое море и Баренцево море. Тест-викторина «Белое море и его обитатели»</t>
-  </si>
-  <si>
-    <t>Арктика и Дальний Восток. Особенности гидрологи</t>
-  </si>
-  <si>
-    <t>Арктика и Дальний Восток. Тест-викторина «Животные и растения Северных морей»</t>
-  </si>
-  <si>
-    <t>Атлантика. Особенности гидрологи и происхождение фауны</t>
-  </si>
-  <si>
-    <t>Атлантика. Тест-викторина «Животные Атлантического океана»</t>
-  </si>
-  <si>
-    <t>Индийский океан. Особенности гидробионтов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Индийский океан. Устный опрос. Контроль знаний. </t>
-  </si>
-  <si>
-    <t>Итоговое занятие № 2. В формате отчетной конференции</t>
-  </si>
-  <si>
-    <t>Принципы работы с информацией. Составление простейшего каталога.</t>
-  </si>
-  <si>
-    <t>Поиск информации. Решение задач по поиску информации в каталогах и картотеках</t>
-  </si>
-  <si>
-    <t>Поисковая система Google. Решение задач по поиску информации с помощью Google</t>
-  </si>
-  <si>
-    <t>Основы библиографии.  Составление библиографического описания источников</t>
+    <t>Принципы работы с информацией. Составление каталога.</t>
+  </si>
+  <si>
+    <t>Поиск информации. Решение задач</t>
+  </si>
+  <si>
+    <t>Поисковая система Google. Решение задач</t>
+  </si>
+  <si>
+    <t>Основы библиографии.  Составление библиографического описания</t>
   </si>
   <si>
     <t>Библиографические программы. Мини - конференция</t>
   </si>
   <si>
-    <t>Стратегия постановки вопроса работы. Формулировка вопроса работы</t>
-  </si>
-  <si>
-    <t>Правила формулировки гипотезы работы. Отработка навыков формулировки гипотезы работы</t>
+    <t>Стратегия постановки вопроса работы. Формулировка вопроса</t>
+  </si>
+  <si>
+    <t>Правила формулировки гипотезы. Отработка навыков формулировки гипотезы</t>
   </si>
   <si>
     <t>Структура введения работы. Написание чернового варианта введения</t>
   </si>
   <si>
-    <t>Стратегия формулировки целей и задач. Обсуждение чернового варианта введения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Техника написания введения. Отработка техники написания введения </t>
-  </si>
-  <si>
-    <t>План организации главы «Обзор литературы». Написание начальной части главы «Обзор литературы»</t>
-  </si>
-  <si>
-    <t>Принципы цитирования источников. Написание промежуточной части главы «Обзор литературы»</t>
-  </si>
-  <si>
-    <t>Библиографические базы данных. Написание финальной части главы «Обзор литературы»</t>
-  </si>
-  <si>
-    <t>Библиографическая программа Mendeley. Редактирование главы «Обзор литературы»</t>
-  </si>
-  <si>
-    <t>План организации главы «Материал и метолика». Написание начальной части главы «Материал и методика»</t>
-  </si>
-  <si>
-    <t>Описание дизайна сбора материала. Написание промежуточной части главы «Материал и методика»</t>
-  </si>
-  <si>
-    <t>Описание географических характеристик сбора материала. Написание финальной части главы «Материал и методика»</t>
+    <t>Стратегия целей и задач. Обсуждение варианта введения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Техника введения. Отработка техники написания введения </t>
+  </si>
+  <si>
+    <t>План главы «Обзор литературы». Написание начальной части главы</t>
+  </si>
+  <si>
+    <t>Принципы цитирования. Написание  главы «Обзор литературы»</t>
+  </si>
+  <si>
+    <t>Библиографические базы. Написание главы «Обзор литературы»</t>
+  </si>
+  <si>
+    <t>Программа Mendeley. Редактирование  «Обзора литературы»</t>
+  </si>
+  <si>
+    <t>План организации главы «Материал и метолика». Черновик «Материал и методика»</t>
+  </si>
+  <si>
+    <t>Описание дизайна материала. Написание  главы «Материал и методика»</t>
+  </si>
+  <si>
+    <t>Описание географических характеристик материала. Написание главы «Материал и методика»</t>
   </si>
   <si>
     <t>Описание обработки материала. Обсуждение главы «Материал и методика»</t>
   </si>
   <si>
-    <t>Описание статистической обработки материала. Редакция главы «Материал и методика»</t>
-  </si>
-  <si>
-    <t>Правила написания главы «Благодарности». Написание главы «Благодарности».</t>
-  </si>
-  <si>
-    <t>Стратегия написания главы «Изложение результатов». Составление плана главы «Изложение результатов»</t>
-  </si>
-  <si>
-    <t>Правила построения баз данных. Проектирование базы данных для материала работы</t>
-  </si>
-  <si>
-    <t>Приемы и правила занесения данных в компьютер. Занесение данных в компьютер</t>
-  </si>
-  <si>
-    <t>Приемы построение карт сбора материала. Построение карт сбора материала</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Приемы построения точечных диаграмм. Построение точечных диаграмм для работы </t>
-  </si>
-  <si>
-    <t>Приемы построения частотных гистограмм. Построение частотных гистограмм для работы</t>
-  </si>
-  <si>
-    <t>Приемы построения линейных графиков. Построение линейных графиков для работы</t>
-  </si>
-  <si>
-    <t>Приемы построения секторных диаграмм. Построение секторных диаграмм для работы</t>
-  </si>
-  <si>
-    <t>Приемы построения комбинированных графиков. Построение комбинированных графиков для работы</t>
-  </si>
-  <si>
-    <t>Приемы построения простых таблиц данных. Построение таблиц с результатами</t>
-  </si>
-  <si>
-    <t>Приемы построения комбинированных таблиц данных. Построение презентационных таблиц с результатами</t>
-  </si>
-  <si>
-    <t>Двухвыборочный t-тест. Применение двухвыборочного t-теста к материалу работы</t>
-  </si>
-  <si>
-    <t>Корреляционный анализ. Применение корреляционного анализа к материалу работы</t>
-  </si>
-  <si>
-    <t>Простая линейная регрессия. Применение линейной регрессии к материалу работы</t>
-  </si>
-  <si>
-    <t>Итоговое занятие №1. Семинар по презентации навыков создания отчетных документов</t>
-  </si>
-  <si>
-    <t>Множественная регрессия. Применение множественной регрессии к материалу</t>
-  </si>
-  <si>
-    <t>Дисперсионный анализ. Применение дисперсионного анализа к материалу работы</t>
-  </si>
-  <si>
-    <t>Двухфакторный дисперсионный анализ. Применение двухфакторного дисперсионного анализа к материалу работы</t>
-  </si>
-  <si>
-    <t>Методы многомерного анализа. Применение методов многомерного анализа к материалу работы</t>
-  </si>
-  <si>
-    <t>Метод главных компонент. Применение метода главных компонент  к материалу работы</t>
-  </si>
-  <si>
-    <t>Основы корреспондентного анализа. Применение корреспондентного анализа к материалу работы</t>
-  </si>
-  <si>
-    <t>Кластерный анализ. Применение кластерного анализа к материалу работы</t>
-  </si>
-  <si>
-    <t>Стратегия написания главы «Обсуждение результатов». Написание главы «Обсуждение результатов»</t>
-  </si>
-  <si>
-    <t>Приемы компоновки материала для главы «Обсуждение результатов». Компоновка материала главы «Обсуждение результатов»</t>
-  </si>
-  <si>
-    <t>Приемы сравнения результатов с литературными данными. Редакция главы «Обсуждение результатов»</t>
-  </si>
-  <si>
-    <t>Стратегия написания главы «Выводы». Написание главы «Выводы»</t>
-  </si>
-  <si>
-    <t>Стратегия написания главы «Литература».  Написание главы «Литература»</t>
-  </si>
-  <si>
-    <t>Стандарты оформления библиографических ссылок. Набивка библиографии в программе Mendeley</t>
-  </si>
-  <si>
-    <t>Поля библиографического описания источников. Написание главы «Литература»</t>
+    <t>Описание статистической обработки. Редакция главы «Материал и методика»</t>
+  </si>
+  <si>
+    <t>Правила написания главы «Благодарности». Написание главы</t>
+  </si>
+  <si>
+    <t>Стратегия главы «Изложение результатов». Составление плана</t>
+  </si>
+  <si>
+    <t>Правила баз данных. Проектирование базы</t>
+  </si>
+  <si>
+    <t>Приемы и правила занесения данных. Занесение данных в компьютер</t>
+  </si>
+  <si>
+    <t>Приемы построение карт сбора материала. Построение карт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приемы построения точечных диаграмм. Построение точечных диаграмм </t>
+  </si>
+  <si>
+    <t>Приемы построения гистограмм. Построение гистограмм</t>
+  </si>
+  <si>
+    <t>Приемы построения графиков. Построение графиков</t>
+  </si>
+  <si>
+    <t>Приемы построения секторных диаграмм. Построение секторных диаграмм</t>
+  </si>
+  <si>
+    <t>Приемы построения комбинированных графиков. Построение графиков</t>
+  </si>
+  <si>
+    <t>Приемы построения таблиц данных. Построение таблиц</t>
+  </si>
+  <si>
+    <t>Приемы построения комбинированных таблиц. Построение таблиц</t>
+  </si>
+  <si>
+    <t>Двухвыборочный t-тест. Применение t-теста</t>
+  </si>
+  <si>
+    <t>Корреляционный анализ. Применение корреляционного анализа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Простая регрессия. Применение регрессии </t>
+  </si>
+  <si>
+    <t>Итоговое занятие №1. Семинар по презентации отчетных документов</t>
+  </si>
+  <si>
+    <t>Множественная регрессия. Применение множественной регрессии</t>
+  </si>
+  <si>
+    <t>Дисперсионный анализ. Применение дисперсионного анализа</t>
+  </si>
+  <si>
+    <t>Двухфакторный дисперсионный анализ. Применение двухфакторного дисперсионного анализа</t>
+  </si>
+  <si>
+    <t>Методы многомерного анализа. Применение многомерного анализа</t>
+  </si>
+  <si>
+    <t>Метод главных компонент. Применение метода</t>
+  </si>
+  <si>
+    <t>Основы корреспондентного анализа. Применение анализа</t>
+  </si>
+  <si>
+    <t>Кластерный анализ. Применение анализа</t>
+  </si>
+  <si>
+    <t>Стратегия главы «Обсуждение результатов». Написание главы</t>
+  </si>
+  <si>
+    <t>Приемы компоновки материала. Компоновка материала</t>
+  </si>
+  <si>
+    <t>Сравнения результатов с литературными данными. Редакция главы «Обсуждение результатов»</t>
+  </si>
+  <si>
+    <t>Стратегия главы «Выводы». Написание главы</t>
+  </si>
+  <si>
+    <t>Стратегия главы «Литература».  Написание главы «Литература»</t>
+  </si>
+  <si>
+    <t>Стандарты библиографических ссылок. Набивка библиографии</t>
+  </si>
+  <si>
+    <t>Поля библиографического описания. Написание главы «Литература»</t>
   </si>
   <si>
     <t>Приемы редактуры текста. Редактура текста</t>
   </si>
   <si>
-    <t>Принципы рецензирования текстов. Рецензирование</t>
-  </si>
-  <si>
-    <t>Техника представления работы в электронном виде. Перевод текста работы в формат pdf</t>
-  </si>
-  <si>
-    <t>Предмет и методы экологии. Практикум по формулировке задач в  области экологии</t>
-  </si>
-  <si>
-    <t>Экологический фактор и его действие. Решение задач на действие экологического фактора</t>
-  </si>
-  <si>
-    <t>Понятие о популяции. Решение задач по анализу обилия популяций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Динамика популяций. Решение задач по моделированию динамики численности популяции </t>
+    <t>Принципы рецензирования. Рецензирование</t>
+  </si>
+  <si>
+    <t>Представления работы в электронном виде. Перевод текста в формат pdf</t>
+  </si>
+  <si>
+    <t>Предмет и методы экологии. Практикум по формулировке задач</t>
+  </si>
+  <si>
+    <t>Экологический фактор. Решение задач</t>
+  </si>
+  <si>
+    <t>Понятие о популяции. Решение задач</t>
+  </si>
+  <si>
+    <t>Динамика популяций. Решение задач</t>
   </si>
   <si>
     <t>Взаимоотношения между популяциями. Построение классификации взаимоотношений</t>
   </si>
   <si>
-    <t>Теория конкуренции. Решение задач на оценку конкурентного исключения</t>
-  </si>
-  <si>
-    <t>Понятие экосистемы и биоценоза. Составление таблиц верности видов</t>
+    <t>Теория конкуренции. Решение задач</t>
+  </si>
+  <si>
+    <t>Понятие экосистемы. Составление таблиц верности видов</t>
   </si>
   <si>
     <t>Понятие биотопа. Построение классификации биотопов</t>
   </si>
   <si>
-    <t>Закономерности видового состава биоценозов. Анализ диаграмм обилия видов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Элементы структуры биоценоза. Практикум по классификации методом Браун-Бланке </t>
-  </si>
-  <si>
-    <t>Сукцессия и ее закономерности. Практикум по построению сукцессионных схем</t>
+    <t>Закономерности видового состава. Анализ диаграмм обилия</t>
+  </si>
+  <si>
+    <t>Структура биоценоза. Практикум по классификации</t>
+  </si>
+  <si>
+    <t>Сукцессия. Практикум по построению сукцессионных схем</t>
   </si>
   <si>
     <t xml:space="preserve">Особо охраняемые природные территории. Игра-дискуссия «Как организовать ООПТ» </t>
@@ -619,25 +613,25 @@
     <t>Биосфера. Комплексная контрольная работа «Экологические факторы Белого моря»</t>
   </si>
   <si>
-    <t>Материальная часть современного компьютера. Разборка и сборка действующего компьютера</t>
-  </si>
-  <si>
-    <t>Понятие операционной системы. Работа по настройке операционной системы</t>
-  </si>
-  <si>
-    <t>Необходимые программы для естествоиспытателя. Установка и настройка программы RStudio</t>
-  </si>
-  <si>
-    <t>Язык статистического программирования R. Запуск готовых скриптов на языке R</t>
-  </si>
-  <si>
-    <t>Программирование на языке R. Написание скриптов на языке R</t>
-  </si>
-  <si>
-    <t>Компьютер для исследователя. Тест по созданию отчетного документа R-Markdown</t>
-  </si>
-  <si>
-    <t>Итоговое занятие №2. Семинар по защите самостоятельных исследовательских работ</t>
+    <t>Материальная часть компьютера. Разборка компьютера</t>
+  </si>
+  <si>
+    <t>Понятие операционной системы. Настройка операционной системы</t>
+  </si>
+  <si>
+    <t>Программы для естествоиспытателя. Установка RStudio</t>
+  </si>
+  <si>
+    <t>Язык R. Запуск скриптов на языке R</t>
+  </si>
+  <si>
+    <t>Программирование на  R. Написание скриптов на R</t>
+  </si>
+  <si>
+    <t>Компьютер для исследователя. Тест по созданию документа R-Markdown</t>
+  </si>
+  <si>
+    <t>Итоговое занятие №2. Семинар по защите исследовательских работ</t>
   </si>
   <si>
     <t>Обсуждение планов сбора материала летом</t>
@@ -1141,7 +1135,7 @@
     <t xml:space="preserve">План организации главы «Обзор литературы». </t>
   </si>
   <si>
-    <t>Принципы цитирования источников.. Написание промежуточной части главы «Обзор литературы»</t>
+    <t>Принципы цитирования источников. Написание главы «Обзор литературы»</t>
   </si>
   <si>
     <t>Библиографические базы данных</t>
@@ -1344,10 +1338,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1358,13 +1352,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1381,30 +1436,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1419,84 +1489,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1511,7 +1505,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,37 +1535,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,13 +1565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,13 +1583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,31 +1601,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,49 +1655,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,6 +1696,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1723,49 +1752,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1785,20 +1782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1807,49 +1801,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1858,97 +1855,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1975,9 +1969,9 @@
     <cellStyle name="Итого" xfId="11" builtinId="25"/>
     <cellStyle name="Вывод" xfId="12" builtinId="21"/>
     <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="Примечание" xfId="14" builtinId="10"/>
-    <cellStyle name="40% — Акцент4" xfId="15" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
     <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
     <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
     <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
@@ -2280,13 +2274,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="B519" sqref="B519"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="B490" sqref="B490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="53.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3134,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3154,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3174,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3194,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3214,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3234,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -3254,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3274,16 +3268,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
         <v>55</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
-        <v>56</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
@@ -3294,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3303,7 +3297,7 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
@@ -3314,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3323,7 +3317,7 @@
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
@@ -3334,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3343,7 +3337,7 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -3354,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3363,7 +3357,7 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -3374,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3383,7 +3377,7 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -3394,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3403,7 +3397,7 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -3414,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3423,7 +3417,7 @@
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
@@ -3434,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3443,7 +3437,7 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -3454,7 +3448,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3474,7 +3468,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3494,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3514,7 +3508,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3534,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3554,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3574,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3594,7 +3588,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3614,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3634,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3654,7 +3648,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3674,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3694,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3714,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3734,7 +3728,7 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3754,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3774,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3794,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3814,7 +3808,7 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3834,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3854,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3874,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3894,7 +3888,7 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3914,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3934,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3954,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -3974,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3994,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4014,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4034,7 +4028,7 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4054,7 +4048,7 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4074,7 +4068,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4094,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4114,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4134,7 +4128,7 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4154,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4174,7 +4168,7 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4194,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4214,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4234,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4254,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4274,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4294,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4314,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4334,7 +4328,7 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4354,7 +4348,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4374,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -4394,7 +4388,7 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4414,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4434,7 +4428,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4454,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4474,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4494,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -4514,7 +4508,7 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4534,7 +4528,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -4554,7 +4548,7 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -4574,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -4594,7 +4588,7 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -4614,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -4634,7 +4628,7 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -4654,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -4674,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -4694,7 +4688,7 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -4714,7 +4708,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -4734,7 +4728,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -4754,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -4774,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -4794,7 +4788,7 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -4814,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -4834,7 +4828,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -4854,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -4874,7 +4868,7 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -4894,7 +4888,7 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -4914,7 +4908,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -4934,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -4954,7 +4948,7 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4974,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5034,7 +5028,7 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -5054,7 +5048,7 @@
         <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C139">
         <v>2</v>
@@ -5074,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -5094,7 +5088,7 @@
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -5114,7 +5108,7 @@
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -5134,7 +5128,7 @@
         <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -5154,7 +5148,7 @@
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -5174,7 +5168,7 @@
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -5194,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -5214,7 +5208,7 @@
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -5234,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -5254,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -5274,7 +5268,7 @@
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -5294,7 +5288,7 @@
         <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -5314,7 +5308,7 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -5334,7 +5328,7 @@
         <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -5354,7 +5348,7 @@
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -5374,7 +5368,7 @@
         <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -5394,7 +5388,7 @@
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -5414,7 +5408,7 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -5434,7 +5428,7 @@
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -5454,7 +5448,7 @@
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -5474,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -5494,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -5514,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -5534,7 +5528,7 @@
         <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -5554,7 +5548,7 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -5574,7 +5568,7 @@
         <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -5594,7 +5588,7 @@
         <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -5614,7 +5608,7 @@
         <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -5634,7 +5628,7 @@
         <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -5654,7 +5648,7 @@
         <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -5674,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -5694,7 +5688,7 @@
         <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -5714,7 +5708,7 @@
         <v>3</v>
       </c>
       <c r="B172" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -5734,7 +5728,7 @@
         <v>3</v>
       </c>
       <c r="B173" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -5754,7 +5748,7 @@
         <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -5774,7 +5768,7 @@
         <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -5794,7 +5788,7 @@
         <v>3</v>
       </c>
       <c r="B176" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -5814,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -5834,7 +5828,7 @@
         <v>3</v>
       </c>
       <c r="B178" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -5854,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="B179" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -5874,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -5894,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="B181" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -5914,7 +5908,7 @@
         <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -5934,7 +5928,7 @@
         <v>3</v>
       </c>
       <c r="B183" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -5954,7 +5948,7 @@
         <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -5974,7 +5968,7 @@
         <v>3</v>
       </c>
       <c r="B185" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -5994,7 +5988,7 @@
         <v>3</v>
       </c>
       <c r="B186" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -6014,7 +6008,7 @@
         <v>3</v>
       </c>
       <c r="B187" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -6034,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="B188" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -6054,7 +6048,7 @@
         <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -6074,7 +6068,7 @@
         <v>3</v>
       </c>
       <c r="B190" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -6094,7 +6088,7 @@
         <v>3</v>
       </c>
       <c r="B191" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -6114,7 +6108,7 @@
         <v>3</v>
       </c>
       <c r="B192" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -6134,7 +6128,7 @@
         <v>3</v>
       </c>
       <c r="B193" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -6154,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -6174,7 +6168,7 @@
         <v>3</v>
       </c>
       <c r="B195" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -6194,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="B196" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -6214,7 +6208,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -6234,7 +6228,7 @@
         <v>3</v>
       </c>
       <c r="B198" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -6254,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="B199" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -6274,7 +6268,7 @@
         <v>3</v>
       </c>
       <c r="B200" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -6294,7 +6288,7 @@
         <v>3</v>
       </c>
       <c r="B201" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -6314,7 +6308,7 @@
         <v>3</v>
       </c>
       <c r="B202" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -6334,7 +6328,7 @@
         <v>3</v>
       </c>
       <c r="B203" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -6354,7 +6348,7 @@
         <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -6374,7 +6368,7 @@
         <v>3</v>
       </c>
       <c r="B205" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -6394,7 +6388,7 @@
         <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -6414,7 +6408,7 @@
         <v>3</v>
       </c>
       <c r="B207" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -6434,7 +6428,7 @@
         <v>3</v>
       </c>
       <c r="B208" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -6454,7 +6448,7 @@
         <v>3</v>
       </c>
       <c r="B209" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -6474,7 +6468,7 @@
         <v>3</v>
       </c>
       <c r="B210" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -6494,7 +6488,7 @@
         <v>3</v>
       </c>
       <c r="B211" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -6514,7 +6508,7 @@
         <v>3</v>
       </c>
       <c r="B212" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -6534,7 +6528,7 @@
         <v>3</v>
       </c>
       <c r="B213" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -6554,7 +6548,7 @@
         <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -6563,7 +6557,7 @@
         <v>8</v>
       </c>
       <c r="E214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F214" t="s">
         <v>8</v>
@@ -6574,7 +6568,7 @@
         <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -6583,7 +6577,7 @@
         <v>8</v>
       </c>
       <c r="E215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F215" t="s">
         <v>8</v>
@@ -6594,7 +6588,7 @@
         <v>3</v>
       </c>
       <c r="B216" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -6603,7 +6597,7 @@
         <v>8</v>
       </c>
       <c r="E216" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F216" t="s">
         <v>8</v>
@@ -6614,7 +6608,7 @@
         <v>3</v>
       </c>
       <c r="B217" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -6623,7 +6617,7 @@
         <v>8</v>
       </c>
       <c r="E217" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F217" t="s">
         <v>8</v>
@@ -6634,7 +6628,7 @@
         <v>3</v>
       </c>
       <c r="B218" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -6643,7 +6637,7 @@
         <v>8</v>
       </c>
       <c r="E218" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F218" t="s">
         <v>8</v>
@@ -6654,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="B219" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -6663,7 +6657,7 @@
         <v>8</v>
       </c>
       <c r="E219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F219" t="s">
         <v>8</v>
@@ -6674,7 +6668,7 @@
         <v>3</v>
       </c>
       <c r="B220" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -6683,7 +6677,7 @@
         <v>8</v>
       </c>
       <c r="E220" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F220" t="s">
         <v>8</v>
@@ -6694,7 +6688,7 @@
         <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -6703,7 +6697,7 @@
         <v>8</v>
       </c>
       <c r="E221" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F221" t="s">
         <v>8</v>
@@ -6714,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -6723,7 +6717,7 @@
         <v>8</v>
       </c>
       <c r="E222" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F222" t="s">
         <v>8</v>
@@ -6734,7 +6728,7 @@
         <v>2</v>
       </c>
       <c r="B223" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C223">
         <v>2</v>
@@ -6746,7 +6740,7 @@
         <v>7</v>
       </c>
       <c r="F223" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224" hidden="1" spans="1:6">
@@ -6754,7 +6748,7 @@
         <v>2</v>
       </c>
       <c r="B224" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C224">
         <v>2</v>
@@ -6766,7 +6760,7 @@
         <v>7</v>
       </c>
       <c r="F224" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="225" hidden="1" spans="1:6">
@@ -6774,7 +6768,7 @@
         <v>2</v>
       </c>
       <c r="B225" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -6786,7 +6780,7 @@
         <v>7</v>
       </c>
       <c r="F225" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="226" hidden="1" spans="1:6">
@@ -6794,7 +6788,7 @@
         <v>2</v>
       </c>
       <c r="B226" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -6806,7 +6800,7 @@
         <v>7</v>
       </c>
       <c r="F226" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227" hidden="1" spans="1:6">
@@ -6814,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="B227" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C227">
         <v>2</v>
@@ -6826,7 +6820,7 @@
         <v>7</v>
       </c>
       <c r="F227" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="228" hidden="1" spans="1:6">
@@ -6834,7 +6828,7 @@
         <v>2</v>
       </c>
       <c r="B228" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C228">
         <v>2</v>
@@ -6846,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="F228" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="229" hidden="1" spans="1:6">
@@ -6854,7 +6848,7 @@
         <v>2</v>
       </c>
       <c r="B229" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -6866,7 +6860,7 @@
         <v>7</v>
       </c>
       <c r="F229" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="230" hidden="1" spans="1:6">
@@ -6874,7 +6868,7 @@
         <v>2</v>
       </c>
       <c r="B230" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -6886,7 +6880,7 @@
         <v>7</v>
       </c>
       <c r="F230" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="231" hidden="1" spans="1:6">
@@ -6894,7 +6888,7 @@
         <v>2</v>
       </c>
       <c r="B231" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -6906,7 +6900,7 @@
         <v>7</v>
       </c>
       <c r="F231" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="232" hidden="1" spans="1:6">
@@ -6914,7 +6908,7 @@
         <v>2</v>
       </c>
       <c r="B232" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -6926,7 +6920,7 @@
         <v>7</v>
       </c>
       <c r="F232" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="233" hidden="1" spans="1:6">
@@ -6934,7 +6928,7 @@
         <v>2</v>
       </c>
       <c r="B233" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -6946,7 +6940,7 @@
         <v>7</v>
       </c>
       <c r="F233" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="234" hidden="1" spans="1:6">
@@ -6954,7 +6948,7 @@
         <v>2</v>
       </c>
       <c r="B234" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -6966,7 +6960,7 @@
         <v>7</v>
       </c>
       <c r="F234" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="235" hidden="1" spans="1:6">
@@ -6974,7 +6968,7 @@
         <v>2</v>
       </c>
       <c r="B235" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -6986,7 +6980,7 @@
         <v>7</v>
       </c>
       <c r="F235" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="236" hidden="1" spans="1:6">
@@ -6994,7 +6988,7 @@
         <v>2</v>
       </c>
       <c r="B236" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C236">
         <v>2</v>
@@ -7006,7 +7000,7 @@
         <v>7</v>
       </c>
       <c r="F236" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="237" hidden="1" spans="1:6">
@@ -7014,7 +7008,7 @@
         <v>2</v>
       </c>
       <c r="B237" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -7026,7 +7020,7 @@
         <v>7</v>
       </c>
       <c r="F237" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="238" hidden="1" spans="1:6">
@@ -7034,7 +7028,7 @@
         <v>2</v>
       </c>
       <c r="B238" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -7046,7 +7040,7 @@
         <v>7</v>
       </c>
       <c r="F238" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="239" hidden="1" spans="1:6">
@@ -7054,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="B239" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -7066,7 +7060,7 @@
         <v>7</v>
       </c>
       <c r="F239" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="240" hidden="1" spans="1:6">
@@ -7074,7 +7068,7 @@
         <v>2</v>
       </c>
       <c r="B240" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -7086,7 +7080,7 @@
         <v>7</v>
       </c>
       <c r="F240" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="241" hidden="1" spans="1:6">
@@ -7094,7 +7088,7 @@
         <v>2</v>
       </c>
       <c r="B241" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -7106,7 +7100,7 @@
         <v>7</v>
       </c>
       <c r="F241" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="242" hidden="1" spans="1:6">
@@ -7114,7 +7108,7 @@
         <v>2</v>
       </c>
       <c r="B242" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -7126,7 +7120,7 @@
         <v>7</v>
       </c>
       <c r="F242" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="243" hidden="1" spans="1:6">
@@ -7134,7 +7128,7 @@
         <v>2</v>
       </c>
       <c r="B243" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -7146,7 +7140,7 @@
         <v>7</v>
       </c>
       <c r="F243" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="244" hidden="1" spans="1:6">
@@ -7154,7 +7148,7 @@
         <v>2</v>
       </c>
       <c r="B244" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C244">
         <v>2</v>
@@ -7166,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="F244" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="245" hidden="1" spans="1:6">
@@ -7174,7 +7168,7 @@
         <v>2</v>
       </c>
       <c r="B245" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -7186,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="F245" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="246" hidden="1" spans="1:6">
@@ -7194,7 +7188,7 @@
         <v>2</v>
       </c>
       <c r="B246" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -7206,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="F246" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="247" hidden="1" spans="1:6">
@@ -7214,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="B247" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -7226,7 +7220,7 @@
         <v>7</v>
       </c>
       <c r="F247" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="248" hidden="1" spans="1:6">
@@ -7234,7 +7228,7 @@
         <v>2</v>
       </c>
       <c r="B248" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C248">
         <v>2</v>
@@ -7246,7 +7240,7 @@
         <v>7</v>
       </c>
       <c r="F248" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="249" hidden="1" spans="1:6">
@@ -7254,7 +7248,7 @@
         <v>2</v>
       </c>
       <c r="B249" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -7266,7 +7260,7 @@
         <v>7</v>
       </c>
       <c r="F249" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="250" hidden="1" spans="1:6">
@@ -7274,7 +7268,7 @@
         <v>2</v>
       </c>
       <c r="B250" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -7286,7 +7280,7 @@
         <v>7</v>
       </c>
       <c r="F250" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="251" hidden="1" spans="1:6">
@@ -7294,7 +7288,7 @@
         <v>2</v>
       </c>
       <c r="B251" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -7306,7 +7300,7 @@
         <v>7</v>
       </c>
       <c r="F251" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="252" hidden="1" spans="1:6">
@@ -7314,7 +7308,7 @@
         <v>2</v>
       </c>
       <c r="B252" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -7326,7 +7320,7 @@
         <v>7</v>
       </c>
       <c r="F252" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="253" hidden="1" spans="1:6">
@@ -7334,7 +7328,7 @@
         <v>2</v>
       </c>
       <c r="B253" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C253">
         <v>2</v>
@@ -7346,7 +7340,7 @@
         <v>7</v>
       </c>
       <c r="F253" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="254" hidden="1" spans="1:6">
@@ -7354,7 +7348,7 @@
         <v>2</v>
       </c>
       <c r="B254" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -7366,7 +7360,7 @@
         <v>7</v>
       </c>
       <c r="F254" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="255" hidden="1" spans="1:6">
@@ -7374,7 +7368,7 @@
         <v>2</v>
       </c>
       <c r="B255" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -7386,7 +7380,7 @@
         <v>7</v>
       </c>
       <c r="F255" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="256" hidden="1" spans="1:6">
@@ -7394,7 +7388,7 @@
         <v>2</v>
       </c>
       <c r="B256" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -7406,7 +7400,7 @@
         <v>7</v>
       </c>
       <c r="F256" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="257" hidden="1" spans="1:6">
@@ -7414,7 +7408,7 @@
         <v>2</v>
       </c>
       <c r="B257" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -7426,7 +7420,7 @@
         <v>7</v>
       </c>
       <c r="F257" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="258" hidden="1" spans="1:6">
@@ -7434,7 +7428,7 @@
         <v>2</v>
       </c>
       <c r="B258" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -7446,7 +7440,7 @@
         <v>7</v>
       </c>
       <c r="F258" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="259" hidden="1" spans="1:6">
@@ -7454,7 +7448,7 @@
         <v>2</v>
       </c>
       <c r="B259" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C259">
         <v>2</v>
@@ -7466,7 +7460,7 @@
         <v>7</v>
       </c>
       <c r="F259" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="260" hidden="1" spans="1:6">
@@ -7474,7 +7468,7 @@
         <v>2</v>
       </c>
       <c r="B260" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -7486,7 +7480,7 @@
         <v>7</v>
       </c>
       <c r="F260" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="261" hidden="1" spans="1:6">
@@ -7494,7 +7488,7 @@
         <v>2</v>
       </c>
       <c r="B261" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C261">
         <v>2</v>
@@ -7506,7 +7500,7 @@
         <v>7</v>
       </c>
       <c r="F261" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="262" hidden="1" spans="1:6">
@@ -7514,7 +7508,7 @@
         <v>2</v>
       </c>
       <c r="B262" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C262">
         <v>2</v>
@@ -7526,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="F262" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="263" hidden="1" spans="1:6">
@@ -7534,7 +7528,7 @@
         <v>2</v>
       </c>
       <c r="B263" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C263">
         <v>2</v>
@@ -7546,7 +7540,7 @@
         <v>7</v>
       </c>
       <c r="F263" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="264" hidden="1" spans="1:6">
@@ -7554,7 +7548,7 @@
         <v>2</v>
       </c>
       <c r="B264" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C264">
         <v>2</v>
@@ -7566,7 +7560,7 @@
         <v>7</v>
       </c>
       <c r="F264" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="265" hidden="1" spans="1:6">
@@ -7574,7 +7568,7 @@
         <v>2</v>
       </c>
       <c r="B265" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -7586,7 +7580,7 @@
         <v>7</v>
       </c>
       <c r="F265" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="266" hidden="1" spans="1:6">
@@ -7594,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -7606,7 +7600,7 @@
         <v>7</v>
       </c>
       <c r="F266" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="267" hidden="1" spans="1:6">
@@ -7614,7 +7608,7 @@
         <v>2</v>
       </c>
       <c r="B267" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -7626,7 +7620,7 @@
         <v>7</v>
       </c>
       <c r="F267" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="268" hidden="1" spans="1:6">
@@ -7634,7 +7628,7 @@
         <v>2</v>
       </c>
       <c r="B268" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -7646,7 +7640,7 @@
         <v>7</v>
       </c>
       <c r="F268" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="269" hidden="1" spans="1:6">
@@ -7654,7 +7648,7 @@
         <v>2</v>
       </c>
       <c r="B269" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -7666,7 +7660,7 @@
         <v>7</v>
       </c>
       <c r="F269" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="270" hidden="1" spans="1:6">
@@ -7674,7 +7668,7 @@
         <v>2</v>
       </c>
       <c r="B270" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C270">
         <v>2</v>
@@ -7686,7 +7680,7 @@
         <v>7</v>
       </c>
       <c r="F270" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="271" hidden="1" spans="1:6">
@@ -7694,7 +7688,7 @@
         <v>2</v>
       </c>
       <c r="B271" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -7706,7 +7700,7 @@
         <v>7</v>
       </c>
       <c r="F271" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="272" hidden="1" spans="1:6">
@@ -7714,7 +7708,7 @@
         <v>2</v>
       </c>
       <c r="B272" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -7726,7 +7720,7 @@
         <v>7</v>
       </c>
       <c r="F272" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="273" hidden="1" spans="1:6">
@@ -7734,7 +7728,7 @@
         <v>2</v>
       </c>
       <c r="B273" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -7746,7 +7740,7 @@
         <v>7</v>
       </c>
       <c r="F273" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="274" hidden="1" spans="1:6">
@@ -7754,7 +7748,7 @@
         <v>2</v>
       </c>
       <c r="B274" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -7766,7 +7760,7 @@
         <v>7</v>
       </c>
       <c r="F274" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="275" hidden="1" spans="1:6">
@@ -7774,7 +7768,7 @@
         <v>2</v>
       </c>
       <c r="B275" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -7786,7 +7780,7 @@
         <v>7</v>
       </c>
       <c r="F275" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="276" hidden="1" spans="1:6">
@@ -7794,7 +7788,7 @@
         <v>2</v>
       </c>
       <c r="B276" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -7806,7 +7800,7 @@
         <v>7</v>
       </c>
       <c r="F276" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="277" hidden="1" spans="1:6">
@@ -7814,7 +7808,7 @@
         <v>2</v>
       </c>
       <c r="B277" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -7826,7 +7820,7 @@
         <v>7</v>
       </c>
       <c r="F277" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="278" hidden="1" spans="1:6">
@@ -7834,7 +7828,7 @@
         <v>2</v>
       </c>
       <c r="B278" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -7846,7 +7840,7 @@
         <v>7</v>
       </c>
       <c r="F278" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="279" hidden="1" spans="1:6">
@@ -7854,7 +7848,7 @@
         <v>2</v>
       </c>
       <c r="B279" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -7866,7 +7860,7 @@
         <v>7</v>
       </c>
       <c r="F279" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="280" hidden="1" spans="1:6">
@@ -7874,7 +7868,7 @@
         <v>2</v>
       </c>
       <c r="B280" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C280">
         <v>2</v>
@@ -7886,7 +7880,7 @@
         <v>7</v>
       </c>
       <c r="F280" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="281" hidden="1" spans="1:6">
@@ -7894,7 +7888,7 @@
         <v>2</v>
       </c>
       <c r="B281" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -7906,7 +7900,7 @@
         <v>7</v>
       </c>
       <c r="F281" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="282" hidden="1" spans="1:6">
@@ -7914,7 +7908,7 @@
         <v>2</v>
       </c>
       <c r="B282" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -7926,7 +7920,7 @@
         <v>7</v>
       </c>
       <c r="F282" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="283" hidden="1" spans="1:6">
@@ -7934,7 +7928,7 @@
         <v>2</v>
       </c>
       <c r="B283" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -7946,7 +7940,7 @@
         <v>7</v>
       </c>
       <c r="F283" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="284" hidden="1" spans="1:6">
@@ -7954,7 +7948,7 @@
         <v>2</v>
       </c>
       <c r="B284" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -7966,7 +7960,7 @@
         <v>7</v>
       </c>
       <c r="F284" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="285" hidden="1" spans="1:6">
@@ -7974,7 +7968,7 @@
         <v>2</v>
       </c>
       <c r="B285" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -7986,7 +7980,7 @@
         <v>7</v>
       </c>
       <c r="F285" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="286" hidden="1" spans="1:6">
@@ -7994,7 +7988,7 @@
         <v>2</v>
       </c>
       <c r="B286" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -8006,7 +8000,7 @@
         <v>7</v>
       </c>
       <c r="F286" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="287" hidden="1" spans="1:6">
@@ -8014,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="B287" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -8026,7 +8020,7 @@
         <v>7</v>
       </c>
       <c r="F287" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="288" hidden="1" spans="1:6">
@@ -8034,7 +8028,7 @@
         <v>2</v>
       </c>
       <c r="B288" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -8046,7 +8040,7 @@
         <v>7</v>
       </c>
       <c r="F288" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="289" hidden="1" spans="1:6">
@@ -8054,7 +8048,7 @@
         <v>2</v>
       </c>
       <c r="B289" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -8066,7 +8060,7 @@
         <v>7</v>
       </c>
       <c r="F289" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="290" hidden="1" spans="1:6">
@@ -8074,7 +8068,7 @@
         <v>2</v>
       </c>
       <c r="B290" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -8086,7 +8080,7 @@
         <v>7</v>
       </c>
       <c r="F290" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="291" hidden="1" spans="1:6">
@@ -8094,7 +8088,7 @@
         <v>2</v>
       </c>
       <c r="B291" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -8106,7 +8100,7 @@
         <v>7</v>
       </c>
       <c r="F291" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="292" hidden="1" spans="1:6">
@@ -8114,7 +8108,7 @@
         <v>2</v>
       </c>
       <c r="B292" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -8126,7 +8120,7 @@
         <v>7</v>
       </c>
       <c r="F292" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="293" hidden="1" spans="1:6">
@@ -8134,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="B293" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -8146,7 +8140,7 @@
         <v>7</v>
       </c>
       <c r="F293" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="294" hidden="1" spans="1:6">
@@ -8154,7 +8148,7 @@
         <v>2</v>
       </c>
       <c r="B294" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -8166,7 +8160,7 @@
         <v>7</v>
       </c>
       <c r="F294" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="295" hidden="1" spans="1:6">
@@ -8174,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="B295" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -8186,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="F295" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="296" hidden="1" spans="1:6">
@@ -8194,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="B296" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -8206,7 +8200,7 @@
         <v>7</v>
       </c>
       <c r="F296" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="297" hidden="1" spans="1:6">
@@ -8214,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="B297" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C297">
         <v>2</v>
@@ -8226,7 +8220,7 @@
         <v>7</v>
       </c>
       <c r="F297" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="298" hidden="1" spans="1:6">
@@ -8234,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="B298" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -8246,7 +8240,7 @@
         <v>7</v>
       </c>
       <c r="F298" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="299" hidden="1" spans="1:6">
@@ -8254,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="B299" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -8266,7 +8260,7 @@
         <v>7</v>
       </c>
       <c r="F299" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="300" hidden="1" spans="1:6">
@@ -8274,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="B300" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -8286,7 +8280,7 @@
         <v>7</v>
       </c>
       <c r="F300" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="301" hidden="1" spans="1:6">
@@ -8294,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="B301" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -8306,7 +8300,7 @@
         <v>7</v>
       </c>
       <c r="F301" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="302" hidden="1" spans="1:6">
@@ -8314,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="B302" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -8326,7 +8320,7 @@
         <v>7</v>
       </c>
       <c r="F302" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="303" hidden="1" spans="1:6">
@@ -8334,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="B303" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -8346,7 +8340,7 @@
         <v>7</v>
       </c>
       <c r="F303" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="304" hidden="1" spans="1:6">
@@ -8354,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="B304" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -8366,7 +8360,7 @@
         <v>7</v>
       </c>
       <c r="F304" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="305" hidden="1" spans="1:6">
@@ -8374,7 +8368,7 @@
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C305">
         <v>2</v>
@@ -8386,7 +8380,7 @@
         <v>7</v>
       </c>
       <c r="F305" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="306" hidden="1" spans="1:6">
@@ -8394,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="B306" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -8406,7 +8400,7 @@
         <v>7</v>
       </c>
       <c r="F306" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="307" hidden="1" spans="1:6">
@@ -8414,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="B307" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -8426,7 +8420,7 @@
         <v>7</v>
       </c>
       <c r="F307" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="308" hidden="1" spans="1:6">
@@ -8434,7 +8428,7 @@
         <v>1</v>
       </c>
       <c r="B308" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -8446,7 +8440,7 @@
         <v>7</v>
       </c>
       <c r="F308" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="309" hidden="1" spans="1:6">
@@ -8454,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="B309" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -8466,7 +8460,7 @@
         <v>7</v>
       </c>
       <c r="F309" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="310" hidden="1" spans="1:6">
@@ -8474,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="B310" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -8486,7 +8480,7 @@
         <v>7</v>
       </c>
       <c r="F310" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="311" hidden="1" spans="1:6">
@@ -8494,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="B311" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -8506,7 +8500,7 @@
         <v>7</v>
       </c>
       <c r="F311" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="312" hidden="1" spans="1:6">
@@ -8514,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="B312" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -8526,7 +8520,7 @@
         <v>7</v>
       </c>
       <c r="F312" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="313" hidden="1" spans="1:6">
@@ -8534,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="B313" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C313">
         <v>1</v>
@@ -8546,7 +8540,7 @@
         <v>7</v>
       </c>
       <c r="F313" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="314" hidden="1" spans="1:6">
@@ -8554,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="B314" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C314">
         <v>2</v>
@@ -8566,7 +8560,7 @@
         <v>7</v>
       </c>
       <c r="F314" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="315" hidden="1" spans="1:6">
@@ -8574,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="B315" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -8586,7 +8580,7 @@
         <v>7</v>
       </c>
       <c r="F315" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="316" hidden="1" spans="1:6">
@@ -8594,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="B316" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C316">
         <v>2</v>
@@ -8606,7 +8600,7 @@
         <v>7</v>
       </c>
       <c r="F316" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="317" hidden="1" spans="1:6">
@@ -8614,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="B317" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -8626,7 +8620,7 @@
         <v>7</v>
       </c>
       <c r="F317" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="318" hidden="1" spans="1:6">
@@ -8634,7 +8628,7 @@
         <v>1</v>
       </c>
       <c r="B318" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -8646,7 +8640,7 @@
         <v>7</v>
       </c>
       <c r="F318" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="319" hidden="1" spans="1:6">
@@ -8654,7 +8648,7 @@
         <v>1</v>
       </c>
       <c r="B319" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -8666,7 +8660,7 @@
         <v>7</v>
       </c>
       <c r="F319" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="320" hidden="1" spans="1:6">
@@ -8674,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -8686,7 +8680,7 @@
         <v>7</v>
       </c>
       <c r="F320" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="321" hidden="1" spans="1:6">
@@ -8694,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="B321" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -8706,7 +8700,7 @@
         <v>7</v>
       </c>
       <c r="F321" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="322" hidden="1" spans="1:6">
@@ -8714,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="B322" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -8726,7 +8720,7 @@
         <v>7</v>
       </c>
       <c r="F322" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="323" hidden="1" spans="1:6">
@@ -8734,7 +8728,7 @@
         <v>1</v>
       </c>
       <c r="B323" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -8746,7 +8740,7 @@
         <v>7</v>
       </c>
       <c r="F323" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="324" hidden="1" spans="1:6">
@@ -8754,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="B324" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -8766,7 +8760,7 @@
         <v>7</v>
       </c>
       <c r="F324" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="325" hidden="1" spans="1:6">
@@ -8774,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="B325" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -8786,7 +8780,7 @@
         <v>7</v>
       </c>
       <c r="F325" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="326" hidden="1" spans="1:6">
@@ -8794,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="B326" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -8806,7 +8800,7 @@
         <v>7</v>
       </c>
       <c r="F326" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="327" hidden="1" spans="1:6">
@@ -8814,7 +8808,7 @@
         <v>1</v>
       </c>
       <c r="B327" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -8826,7 +8820,7 @@
         <v>7</v>
       </c>
       <c r="F327" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="328" hidden="1" spans="1:6">
@@ -8834,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="B328" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -8846,7 +8840,7 @@
         <v>7</v>
       </c>
       <c r="F328" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="329" hidden="1" spans="1:6">
@@ -8854,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -8866,7 +8860,7 @@
         <v>7</v>
       </c>
       <c r="F329" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="330" hidden="1" spans="1:6">
@@ -8874,7 +8868,7 @@
         <v>1</v>
       </c>
       <c r="B330" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -8886,7 +8880,7 @@
         <v>7</v>
       </c>
       <c r="F330" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="331" hidden="1" spans="1:6">
@@ -8894,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="B331" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -8906,7 +8900,7 @@
         <v>7</v>
       </c>
       <c r="F331" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="332" hidden="1" spans="1:6">
@@ -8914,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="B332" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -8926,7 +8920,7 @@
         <v>7</v>
       </c>
       <c r="F332" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="333" hidden="1" spans="1:6">
@@ -8934,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="B333" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -8946,7 +8940,7 @@
         <v>7</v>
       </c>
       <c r="F333" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="334" hidden="1" spans="1:6">
@@ -8954,7 +8948,7 @@
         <v>1</v>
       </c>
       <c r="B334" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -8966,7 +8960,7 @@
         <v>7</v>
       </c>
       <c r="F334" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="335" hidden="1" spans="1:6">
@@ -8974,7 +8968,7 @@
         <v>1</v>
       </c>
       <c r="B335" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -8986,7 +8980,7 @@
         <v>7</v>
       </c>
       <c r="F335" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="336" hidden="1" spans="1:6">
@@ -8994,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="B336" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C336">
         <v>2</v>
@@ -9006,7 +9000,7 @@
         <v>7</v>
       </c>
       <c r="F336" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="337" hidden="1" spans="1:6">
@@ -9014,7 +9008,7 @@
         <v>1</v>
       </c>
       <c r="B337" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -9026,7 +9020,7 @@
         <v>7</v>
       </c>
       <c r="F337" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="338" hidden="1" spans="1:6">
@@ -9034,7 +9028,7 @@
         <v>1</v>
       </c>
       <c r="B338" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -9046,7 +9040,7 @@
         <v>7</v>
       </c>
       <c r="F338" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="339" hidden="1" spans="1:6">
@@ -9054,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="B339" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C339">
         <v>2</v>
@@ -9066,7 +9060,7 @@
         <v>7</v>
       </c>
       <c r="F339" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="340" hidden="1" spans="1:6">
@@ -9074,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="B340" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -9086,7 +9080,7 @@
         <v>7</v>
       </c>
       <c r="F340" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="341" hidden="1" spans="1:6">
@@ -9094,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="B341" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C341">
         <v>2</v>
@@ -9106,7 +9100,7 @@
         <v>7</v>
       </c>
       <c r="F341" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="342" hidden="1" spans="1:6">
@@ -9114,7 +9108,7 @@
         <v>1</v>
       </c>
       <c r="B342" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -9126,7 +9120,7 @@
         <v>7</v>
       </c>
       <c r="F342" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="343" hidden="1" spans="1:6">
@@ -9134,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="B343" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -9146,7 +9140,7 @@
         <v>7</v>
       </c>
       <c r="F343" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="344" hidden="1" spans="1:6">
@@ -9154,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="B344" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C344">
         <v>2</v>
@@ -9166,7 +9160,7 @@
         <v>7</v>
       </c>
       <c r="F344" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="345" hidden="1" spans="1:6">
@@ -9174,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="B345" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -9186,7 +9180,7 @@
         <v>7</v>
       </c>
       <c r="F345" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="346" hidden="1" spans="1:6">
@@ -9194,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="B346" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -9206,7 +9200,7 @@
         <v>7</v>
       </c>
       <c r="F346" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="347" hidden="1" spans="1:6">
@@ -9214,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="B347" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C347">
         <v>2</v>
@@ -9226,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="F347" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="348" hidden="1" spans="1:6">
@@ -9234,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="B348" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -9246,7 +9240,7 @@
         <v>7</v>
       </c>
       <c r="F348" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="349" hidden="1" spans="1:6">
@@ -9254,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="B349" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -9266,7 +9260,7 @@
         <v>7</v>
       </c>
       <c r="F349" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="350" hidden="1" spans="1:6">
@@ -9274,7 +9268,7 @@
         <v>1</v>
       </c>
       <c r="B350" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -9286,7 +9280,7 @@
         <v>7</v>
       </c>
       <c r="F350" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="351" hidden="1" spans="1:6">
@@ -9294,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="B351" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C351">
         <v>2</v>
@@ -9306,7 +9300,7 @@
         <v>7</v>
       </c>
       <c r="F351" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="352" hidden="1" spans="1:6">
@@ -9314,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="B352" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -9326,7 +9320,7 @@
         <v>7</v>
       </c>
       <c r="F352" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="353" hidden="1" spans="1:6">
@@ -9334,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="B353" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -9346,7 +9340,7 @@
         <v>7</v>
       </c>
       <c r="F353" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="354" hidden="1" spans="1:6">
@@ -9354,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="B354" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -9366,7 +9360,7 @@
         <v>7</v>
       </c>
       <c r="F354" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="355" hidden="1" spans="1:6">
@@ -9374,7 +9368,7 @@
         <v>1</v>
       </c>
       <c r="B355" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C355">
         <v>2</v>
@@ -9386,7 +9380,7 @@
         <v>7</v>
       </c>
       <c r="F355" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="356" hidden="1" spans="1:6">
@@ -9394,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="B356" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -9406,7 +9400,7 @@
         <v>7</v>
       </c>
       <c r="F356" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="357" hidden="1" spans="1:6">
@@ -9414,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="B357" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C357">
         <v>2</v>
@@ -9426,7 +9420,7 @@
         <v>7</v>
       </c>
       <c r="F357" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="358" hidden="1" spans="1:6">
@@ -9434,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="B358" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -9446,7 +9440,7 @@
         <v>7</v>
       </c>
       <c r="F358" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="359" hidden="1" spans="1:6">
@@ -9454,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="B359" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -9466,7 +9460,7 @@
         <v>7</v>
       </c>
       <c r="F359" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="360" hidden="1" spans="1:6">
@@ -9474,7 +9468,7 @@
         <v>1</v>
       </c>
       <c r="B360" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -9486,7 +9480,7 @@
         <v>7</v>
       </c>
       <c r="F360" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="361" hidden="1" spans="1:6">
@@ -9494,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="B361" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C361">
         <v>2</v>
@@ -9506,7 +9500,7 @@
         <v>7</v>
       </c>
       <c r="F361" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="362" hidden="1" spans="1:6">
@@ -9514,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="B362" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -9526,7 +9520,7 @@
         <v>7</v>
       </c>
       <c r="F362" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="363" hidden="1" spans="1:6">
@@ -9534,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="B363" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -9546,7 +9540,7 @@
         <v>7</v>
       </c>
       <c r="F363" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="364" hidden="1" spans="1:6">
@@ -9554,7 +9548,7 @@
         <v>1</v>
       </c>
       <c r="B364" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -9566,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="F364" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="365" hidden="1" spans="1:6">
@@ -9574,7 +9568,7 @@
         <v>1</v>
       </c>
       <c r="B365" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -9586,7 +9580,7 @@
         <v>7</v>
       </c>
       <c r="F365" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="366" hidden="1" spans="1:6">
@@ -9594,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="B366" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -9606,7 +9600,7 @@
         <v>7</v>
       </c>
       <c r="F366" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -9614,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="B367" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -9623,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F367" t="s">
         <v>8</v>
@@ -9634,7 +9628,7 @@
         <v>1</v>
       </c>
       <c r="B368" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -9643,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E368" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F368" t="s">
         <v>8</v>
@@ -9654,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="B369" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -9663,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F369" t="s">
         <v>8</v>
@@ -9674,7 +9668,7 @@
         <v>1</v>
       </c>
       <c r="B370" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -9683,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="E370" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F370" t="s">
         <v>8</v>
@@ -9694,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="B371" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -9703,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F371" t="s">
         <v>8</v>
@@ -9714,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="B372" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -9723,7 +9717,7 @@
         <v>1</v>
       </c>
       <c r="E372" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F372" t="s">
         <v>8</v>
@@ -9734,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="B373" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -9743,7 +9737,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F373" t="s">
         <v>8</v>
@@ -9754,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="B374" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -9763,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="E374" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F374" t="s">
         <v>8</v>
@@ -9774,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="B375" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -9783,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F375" t="s">
         <v>8</v>
@@ -9794,7 +9788,7 @@
         <v>1</v>
       </c>
       <c r="B376" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -9803,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="E376" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F376" t="s">
         <v>8</v>
@@ -9814,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="B377" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -9823,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F377" t="s">
         <v>8</v>
@@ -9834,7 +9828,7 @@
         <v>1</v>
       </c>
       <c r="B378" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -9843,7 +9837,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F378" t="s">
         <v>8</v>
@@ -9854,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="B379" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -9863,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F379" t="s">
         <v>8</v>
@@ -9874,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="B380" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -9883,7 +9877,7 @@
         <v>1</v>
       </c>
       <c r="E380" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F380" t="s">
         <v>8</v>
@@ -9894,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="B381" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -9903,7 +9897,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F381" t="s">
         <v>8</v>
@@ -9914,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="B382" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -9923,7 +9917,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F382" t="s">
         <v>8</v>
@@ -9934,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="B383" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -9943,7 +9937,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F383" t="s">
         <v>8</v>
@@ -9954,7 +9948,7 @@
         <v>1</v>
       </c>
       <c r="B384" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -9963,7 +9957,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F384" t="s">
         <v>8</v>
@@ -9974,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="B385" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -9983,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F385" t="s">
         <v>8</v>
@@ -9994,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="B386" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -10003,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F386" t="s">
         <v>8</v>
@@ -10014,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="B387" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -10023,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F387" t="s">
         <v>8</v>
@@ -10034,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="B388" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -10043,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="E388" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F388" t="s">
         <v>8</v>
@@ -10054,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="B389" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -10063,7 +10057,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F389" t="s">
         <v>8</v>
@@ -10074,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="B390" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -10083,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="E390" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F390" t="s">
         <v>8</v>
@@ -10094,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="B391" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -10103,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F391" t="s">
         <v>8</v>
@@ -10114,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="B392" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -10123,7 +10117,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F392" t="s">
         <v>8</v>
@@ -10134,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="B393" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -10143,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F393" t="s">
         <v>8</v>
@@ -10154,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="B394" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -10163,7 +10157,7 @@
         <v>1</v>
       </c>
       <c r="E394" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F394" t="s">
         <v>8</v>
@@ -10174,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="B395" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -10183,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F395" t="s">
         <v>8</v>
@@ -10194,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="B396" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -10203,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="E396" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F396" t="s">
         <v>8</v>
@@ -10214,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="B397" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -10223,7 +10217,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F397" t="s">
         <v>8</v>
@@ -10234,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="B398" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -10243,7 +10237,7 @@
         <v>1</v>
       </c>
       <c r="E398" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F398" t="s">
         <v>8</v>
@@ -10254,7 +10248,7 @@
         <v>1</v>
       </c>
       <c r="B399" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -10263,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F399" t="s">
         <v>8</v>
@@ -10274,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="B400" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -10283,7 +10277,7 @@
         <v>1</v>
       </c>
       <c r="E400" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F400" t="s">
         <v>8</v>
@@ -10294,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="B401" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -10303,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F401" t="s">
         <v>8</v>
@@ -10314,7 +10308,7 @@
         <v>1</v>
       </c>
       <c r="B402" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -10323,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E402" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F402" t="s">
         <v>8</v>
@@ -10334,7 +10328,7 @@
         <v>2</v>
       </c>
       <c r="B403" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -10354,7 +10348,7 @@
         <v>2</v>
       </c>
       <c r="B404" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -10374,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="B405" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -10394,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B406" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -10403,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="E406" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F406" t="s">
         <v>8</v>
@@ -10414,7 +10408,7 @@
         <v>2</v>
       </c>
       <c r="B407" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -10423,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F407" t="s">
         <v>8</v>
@@ -10434,7 +10428,7 @@
         <v>2</v>
       </c>
       <c r="B408" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -10443,7 +10437,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F408" t="s">
         <v>8</v>
@@ -10454,7 +10448,7 @@
         <v>2</v>
       </c>
       <c r="B409" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -10463,7 +10457,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F409" t="s">
         <v>8</v>
@@ -10474,7 +10468,7 @@
         <v>2</v>
       </c>
       <c r="B410" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -10483,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F410" t="s">
         <v>8</v>
@@ -10494,7 +10488,7 @@
         <v>2</v>
       </c>
       <c r="B411" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -10503,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F411" t="s">
         <v>8</v>
@@ -10514,7 +10508,7 @@
         <v>2</v>
       </c>
       <c r="B412" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -10523,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F412" t="s">
         <v>8</v>
@@ -10534,7 +10528,7 @@
         <v>2</v>
       </c>
       <c r="B413" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -10543,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F413" t="s">
         <v>8</v>
@@ -10554,7 +10548,7 @@
         <v>2</v>
       </c>
       <c r="B414" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -10563,7 +10557,7 @@
         <v>1</v>
       </c>
       <c r="E414" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F414" t="s">
         <v>8</v>
@@ -10574,7 +10568,7 @@
         <v>2</v>
       </c>
       <c r="B415" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -10583,7 +10577,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F415" t="s">
         <v>8</v>
@@ -10594,7 +10588,7 @@
         <v>2</v>
       </c>
       <c r="B416" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -10603,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F416" t="s">
         <v>8</v>
@@ -10614,7 +10608,7 @@
         <v>2</v>
       </c>
       <c r="B417" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -10623,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F417" t="s">
         <v>8</v>
@@ -10634,7 +10628,7 @@
         <v>2</v>
       </c>
       <c r="B418" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -10643,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="E418" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F418" t="s">
         <v>8</v>
@@ -10654,7 +10648,7 @@
         <v>2</v>
       </c>
       <c r="B419" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -10663,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F419" t="s">
         <v>8</v>
@@ -10674,7 +10668,7 @@
         <v>2</v>
       </c>
       <c r="B420" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -10683,7 +10677,7 @@
         <v>1</v>
       </c>
       <c r="E420" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F420" t="s">
         <v>8</v>
@@ -10694,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="B421" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -10703,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F421" t="s">
         <v>8</v>
@@ -10714,7 +10708,7 @@
         <v>2</v>
       </c>
       <c r="B422" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -10723,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F422" t="s">
         <v>8</v>
@@ -10734,7 +10728,7 @@
         <v>2</v>
       </c>
       <c r="B423" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -10743,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F423" t="s">
         <v>8</v>
@@ -10754,7 +10748,7 @@
         <v>2</v>
       </c>
       <c r="B424" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -10763,7 +10757,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F424" t="s">
         <v>8</v>
@@ -10774,7 +10768,7 @@
         <v>2</v>
       </c>
       <c r="B425" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -10783,7 +10777,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F425" t="s">
         <v>8</v>
@@ -10794,7 +10788,7 @@
         <v>2</v>
       </c>
       <c r="B426" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -10803,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F426" t="s">
         <v>8</v>
@@ -10814,7 +10808,7 @@
         <v>2</v>
       </c>
       <c r="B427" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -10823,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F427" t="s">
         <v>8</v>
@@ -10834,7 +10828,7 @@
         <v>2</v>
       </c>
       <c r="B428" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -10843,7 +10837,7 @@
         <v>1</v>
       </c>
       <c r="E428" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F428" t="s">
         <v>8</v>
@@ -10854,7 +10848,7 @@
         <v>2</v>
       </c>
       <c r="B429" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -10863,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F429" t="s">
         <v>8</v>
@@ -10874,7 +10868,7 @@
         <v>2</v>
       </c>
       <c r="B430" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -10883,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="E430" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F430" t="s">
         <v>8</v>
@@ -10894,7 +10888,7 @@
         <v>2</v>
       </c>
       <c r="B431" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -10903,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F431" t="s">
         <v>8</v>
@@ -10914,7 +10908,7 @@
         <v>2</v>
       </c>
       <c r="B432" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -10923,7 +10917,7 @@
         <v>1</v>
       </c>
       <c r="E432" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F432" t="s">
         <v>8</v>
@@ -10934,7 +10928,7 @@
         <v>2</v>
       </c>
       <c r="B433" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -10943,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F433" t="s">
         <v>8</v>
@@ -10954,7 +10948,7 @@
         <v>2</v>
       </c>
       <c r="B434" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -10963,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="E434" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F434" t="s">
         <v>8</v>
@@ -10974,7 +10968,7 @@
         <v>2</v>
       </c>
       <c r="B435" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -10983,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F435" t="s">
         <v>8</v>
@@ -10994,7 +10988,7 @@
         <v>2</v>
       </c>
       <c r="B436" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -11003,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="E436" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F436" t="s">
         <v>8</v>
@@ -11014,7 +11008,7 @@
         <v>2</v>
       </c>
       <c r="B437" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -11023,7 +11017,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F437" t="s">
         <v>8</v>
@@ -11034,7 +11028,7 @@
         <v>2</v>
       </c>
       <c r="B438" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -11043,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="E438" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F438" t="s">
         <v>8</v>
@@ -11054,7 +11048,7 @@
         <v>2</v>
       </c>
       <c r="B439" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -11063,7 +11057,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F439" t="s">
         <v>8</v>
@@ -11074,7 +11068,7 @@
         <v>2</v>
       </c>
       <c r="B440" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -11083,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F440" t="s">
         <v>8</v>
@@ -11094,7 +11088,7 @@
         <v>2</v>
       </c>
       <c r="B441" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -11103,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F441" t="s">
         <v>8</v>
@@ -11114,7 +11108,7 @@
         <v>4</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C442" s="1">
         <v>1</v>
@@ -11134,7 +11128,7 @@
         <v>4</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C443" s="1">
         <v>1</v>
@@ -11154,7 +11148,7 @@
         <v>4</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C444" s="1">
         <v>1</v>
@@ -11174,7 +11168,7 @@
         <v>4</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C445" s="1">
         <v>1</v>
@@ -11194,7 +11188,7 @@
         <v>4</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C446" s="1">
         <v>1</v>
@@ -11214,7 +11208,7 @@
         <v>4</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C447" s="1">
         <v>1</v>
@@ -11234,7 +11228,7 @@
         <v>4</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C448" s="1">
         <v>1</v>
@@ -11254,7 +11248,7 @@
         <v>4</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C449" s="1">
         <v>1</v>
@@ -11274,7 +11268,7 @@
         <v>4</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C450" s="1">
         <v>1</v>
@@ -11294,7 +11288,7 @@
         <v>4</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C451" s="1">
         <v>1</v>
@@ -11314,7 +11308,7 @@
         <v>4</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C452" s="1">
         <v>1</v>
@@ -11334,7 +11328,7 @@
         <v>4</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C453" s="1">
         <v>1</v>
@@ -11354,7 +11348,7 @@
         <v>4</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C454" s="1">
         <v>1</v>
@@ -11374,7 +11368,7 @@
         <v>4</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C455" s="1">
         <v>1</v>
@@ -11394,7 +11388,7 @@
         <v>4</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C456" s="1">
         <v>1</v>
@@ -11414,7 +11408,7 @@
         <v>4</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C457" s="1">
         <v>1</v>
@@ -11434,7 +11428,7 @@
         <v>4</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C458" s="1">
         <v>1</v>
@@ -11454,7 +11448,7 @@
         <v>4</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C459" s="1">
         <v>1</v>
@@ -11474,7 +11468,7 @@
         <v>4</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C460" s="1">
         <v>1</v>
@@ -11494,7 +11488,7 @@
         <v>4</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C461" s="1">
         <v>1</v>
@@ -11514,7 +11508,7 @@
         <v>4</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C462" s="1">
         <v>1</v>
@@ -11534,7 +11528,7 @@
         <v>4</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C463" s="1">
         <v>1</v>
@@ -11554,7 +11548,7 @@
         <v>4</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C464" s="1">
         <v>1</v>
@@ -11574,7 +11568,7 @@
         <v>4</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C465" s="1">
         <v>1</v>
@@ -11594,7 +11588,7 @@
         <v>4</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C466" s="1">
         <v>1</v>
@@ -11614,7 +11608,7 @@
         <v>4</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C467" s="1">
         <v>1</v>
@@ -11634,7 +11628,7 @@
         <v>4</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C468" s="1">
         <v>1</v>
@@ -11654,7 +11648,7 @@
         <v>4</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C469" s="1">
         <v>1</v>
@@ -11674,7 +11668,7 @@
         <v>4</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C470" s="1">
         <v>1</v>
@@ -11694,7 +11688,7 @@
         <v>4</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C471" s="1">
         <v>1</v>
@@ -11714,7 +11708,7 @@
         <v>4</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C472" s="1">
         <v>1</v>
@@ -11734,7 +11728,7 @@
         <v>4</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C473" s="1">
         <v>1</v>
@@ -11754,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C474" s="1">
         <v>1</v>
@@ -11774,7 +11768,7 @@
         <v>4</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C475" s="1">
         <v>1</v>
@@ -11794,7 +11788,7 @@
         <v>4</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C476" s="1">
         <v>1</v>
@@ -11814,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C477" s="1">
         <v>1</v>
@@ -11834,7 +11828,7 @@
         <v>4</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C478" s="1">
         <v>1</v>
@@ -11854,7 +11848,7 @@
         <v>4</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C479" s="1">
         <v>1</v>
@@ -11874,7 +11868,7 @@
         <v>4</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C480" s="1">
         <v>1</v>
@@ -11894,7 +11888,7 @@
         <v>4</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C481" s="1">
         <v>1</v>
@@ -11914,7 +11908,7 @@
         <v>4</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C482" s="1">
         <v>1</v>
@@ -11934,7 +11928,7 @@
         <v>4</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C483" s="1">
         <v>1</v>
@@ -11954,7 +11948,7 @@
         <v>4</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C484" s="1">
         <v>1</v>
@@ -11974,7 +11968,7 @@
         <v>4</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C485" s="1">
         <v>1</v>
@@ -11994,7 +11988,7 @@
         <v>4</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C486" s="1">
         <v>1</v>
@@ -12014,7 +12008,7 @@
         <v>4</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C487" s="1">
         <v>1</v>
@@ -12034,7 +12028,7 @@
         <v>4</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C488" s="1">
         <v>1</v>
@@ -12054,7 +12048,7 @@
         <v>4</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C489" s="1">
         <v>1</v>
@@ -12074,7 +12068,7 @@
         <v>4</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C490" s="1">
         <v>1</v>
@@ -12094,7 +12088,7 @@
         <v>4</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C491" s="1">
         <v>1</v>
@@ -12114,7 +12108,7 @@
         <v>4</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C492" s="1">
         <v>1</v>
@@ -12134,7 +12128,7 @@
         <v>4</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C493" s="1">
         <v>1</v>
@@ -12154,7 +12148,7 @@
         <v>4</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C494" s="1">
         <v>1</v>
@@ -12174,7 +12168,7 @@
         <v>4</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C495" s="1">
         <v>1</v>
@@ -12194,7 +12188,7 @@
         <v>4</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C496" s="1">
         <v>2</v>
@@ -12214,7 +12208,7 @@
         <v>4</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C497" s="1">
         <v>2</v>
@@ -12234,7 +12228,7 @@
         <v>4</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C498" s="1">
         <v>2</v>
@@ -12254,7 +12248,7 @@
         <v>4</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C499" s="1">
         <v>2</v>
@@ -12274,7 +12268,7 @@
         <v>4</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C500" s="1">
         <v>2</v>
@@ -12294,7 +12288,7 @@
         <v>4</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C501" s="1">
         <v>2</v>
@@ -12314,7 +12308,7 @@
         <v>4</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C502" s="1">
         <v>2</v>
@@ -12334,7 +12328,7 @@
         <v>4</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C503" s="1">
         <v>2</v>
@@ -12354,7 +12348,7 @@
         <v>4</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C504" s="1">
         <v>2</v>
@@ -12374,7 +12368,7 @@
         <v>4</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C505" s="1">
         <v>2</v>
@@ -12394,7 +12388,7 @@
         <v>4</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C506" s="1">
         <v>2</v>
@@ -12414,7 +12408,7 @@
         <v>4</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C507" s="1">
         <v>2</v>
@@ -12434,7 +12428,7 @@
         <v>4</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C508" s="1">
         <v>2</v>
@@ -12454,7 +12448,7 @@
         <v>4</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C509" s="1">
         <v>2</v>
@@ -12474,7 +12468,7 @@
         <v>4</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C510" s="1">
         <v>2</v>
@@ -12494,7 +12488,7 @@
         <v>4</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C511" s="1">
         <v>2</v>
@@ -12514,7 +12508,7 @@
         <v>4</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C512" s="1">
         <v>2</v>
@@ -12534,7 +12528,7 @@
         <v>4</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C513" s="1">
         <v>2</v>
@@ -12554,7 +12548,7 @@
         <v>4</v>
       </c>
       <c r="B514" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -12563,7 +12557,7 @@
         <v>8</v>
       </c>
       <c r="E514" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F514" t="s">
         <v>8</v>
@@ -12574,7 +12568,7 @@
         <v>4</v>
       </c>
       <c r="B515" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -12583,7 +12577,7 @@
         <v>8</v>
       </c>
       <c r="E515" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F515" t="s">
         <v>8</v>
@@ -12594,7 +12588,7 @@
         <v>4</v>
       </c>
       <c r="B516" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -12603,7 +12597,7 @@
         <v>8</v>
       </c>
       <c r="E516" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F516" t="s">
         <v>8</v>
@@ -12614,7 +12608,7 @@
         <v>4</v>
       </c>
       <c r="B517" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -12623,7 +12617,7 @@
         <v>8</v>
       </c>
       <c r="E517" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F517" t="s">
         <v>8</v>
@@ -12634,7 +12628,7 @@
         <v>4</v>
       </c>
       <c r="B518" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -12643,7 +12637,7 @@
         <v>8</v>
       </c>
       <c r="E518" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F518" t="s">
         <v>8</v>
@@ -12654,7 +12648,7 @@
         <v>4</v>
       </c>
       <c r="B519" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -12663,7 +12657,7 @@
         <v>8</v>
       </c>
       <c r="E519" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F519" t="s">
         <v>8</v>
@@ -12674,7 +12668,7 @@
         <v>4</v>
       </c>
       <c r="B520" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -12683,7 +12677,7 @@
         <v>8</v>
       </c>
       <c r="E520" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F520" t="s">
         <v>8</v>
@@ -12694,7 +12688,7 @@
         <v>4</v>
       </c>
       <c r="B521" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -12703,7 +12697,7 @@
         <v>8</v>
       </c>
       <c r="E521" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F521" t="s">
         <v>8</v>
@@ -12714,7 +12708,7 @@
         <v>4</v>
       </c>
       <c r="B522" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -12723,14 +12717,14 @@
         <v>8</v>
       </c>
       <c r="E522" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F522" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F513">
+  <autoFilter ref="A1:F522">
     <filterColumn colId="5">
       <customFilters>
         <customFilter operator="equal" val="Программа экологии морского бентоса (гидробиология)"/>
